--- a/data/trans_orig/P1413-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1413-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9DA95216-ED5F-4C5A-88E6-58ED2D175685}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{86E24A3F-C97F-49B9-BACA-BF3118FAC3DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{ABAD1D14-18FA-4DAF-8DAC-529A23EAF62C}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{08FC2927-3F23-458B-BA90-9E93B9426424}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="484">
   <si>
     <t>Población con diagnóstico de dolor de espalda en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -488,55 +488,55 @@
     <t>8,02%</t>
   </si>
   <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
   </si>
   <si>
     <t>20,73%</t>
   </si>
   <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>29,63%</t>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>29,45%</t>
   </si>
   <si>
     <t>14,27%</t>
   </si>
   <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
   </si>
   <si>
     <t>91,98%</t>
   </si>
   <si>
-    <t>86,59%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
+    <t>86,15%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
   </si>
   <si>
     <t>79,27%</t>
   </si>
   <si>
-    <t>70,37%</t>
-  </si>
-  <si>
-    <t>86,16%</t>
+    <t>70,55%</t>
+  </si>
+  <si>
+    <t>86,64%</t>
   </si>
   <si>
     <t>85,73%</t>
   </si>
   <si>
-    <t>80,36%</t>
-  </si>
-  <si>
-    <t>90,27%</t>
+    <t>80,11%</t>
+  </si>
+  <si>
+    <t>89,78%</t>
   </si>
   <si>
     <t>0,35%</t>
@@ -545,55 +545,49 @@
     <t>11,89%</t>
   </si>
   <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
   </si>
   <si>
     <t>20,83%</t>
   </si>
   <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
+    <t>24,7%</t>
   </si>
   <si>
     <t>16,35%</t>
   </si>
   <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
   </si>
   <si>
     <t>88,11%</t>
   </si>
   <si>
-    <t>85,05%</t>
-  </si>
-  <si>
-    <t>90,56%</t>
+    <t>85,24%</t>
+  </si>
+  <si>
+    <t>90,78%</t>
   </si>
   <si>
     <t>79,17%</t>
   </si>
   <si>
-    <t>75,76%</t>
-  </si>
-  <si>
-    <t>82,44%</t>
+    <t>75,3%</t>
   </si>
   <si>
     <t>83,65%</t>
   </si>
   <si>
-    <t>81,19%</t>
-  </si>
-  <si>
-    <t>85,78%</t>
+    <t>81,34%</t>
+  </si>
+  <si>
+    <t>85,83%</t>
   </si>
   <si>
     <t>0,2%</t>
@@ -602,55 +596,55 @@
     <t>10,44%</t>
   </si>
   <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
   </si>
   <si>
     <t>17,59%</t>
   </si>
   <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
   </si>
   <si>
     <t>14,04%</t>
   </si>
   <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
   </si>
   <si>
     <t>89,56%</t>
   </si>
   <si>
-    <t>87,32%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
+    <t>87,5%</t>
+  </si>
+  <si>
+    <t>91,37%</t>
   </si>
   <si>
     <t>82,41%</t>
   </si>
   <si>
-    <t>79,75%</t>
-  </si>
-  <si>
-    <t>84,95%</t>
+    <t>79,84%</t>
+  </si>
+  <si>
+    <t>84,53%</t>
   </si>
   <si>
     <t>85,96%</t>
   </si>
   <si>
-    <t>84,38%</t>
-  </si>
-  <si>
-    <t>87,58%</t>
+    <t>84,41%</t>
+  </si>
+  <si>
+    <t>87,53%</t>
   </si>
   <si>
     <t>0,27%</t>
@@ -659,880 +653,844 @@
     <t>6,38%</t>
   </si>
   <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
   </si>
   <si>
     <t>15,1%</t>
   </si>
   <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>93,62%</t>
+  </si>
+  <si>
+    <t>91,07%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>84,9%</t>
+  </si>
+  <si>
+    <t>87,52%</t>
+  </si>
+  <si>
+    <t>89,2%</t>
+  </si>
+  <si>
+    <t>87,46%</t>
+  </si>
+  <si>
+    <t>90,74%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>90,03%</t>
+  </si>
+  <si>
+    <t>93,69%</t>
+  </si>
+  <si>
+    <t>80,79%</t>
+  </si>
+  <si>
+    <t>78,21%</t>
+  </si>
+  <si>
+    <t>83,35%</t>
+  </si>
+  <si>
+    <t>86,14%</t>
+  </si>
+  <si>
+    <t>84,44%</t>
+  </si>
+  <si>
+    <t>87,67%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>90,98%</t>
+  </si>
+  <si>
+    <t>89,93%</t>
+  </si>
+  <si>
+    <t>91,93%</t>
+  </si>
+  <si>
+    <t>81,84%</t>
+  </si>
+  <si>
+    <t>80,51%</t>
+  </si>
+  <si>
+    <t>83,12%</t>
+  </si>
+  <si>
+    <t>86,33%</t>
+  </si>
+  <si>
+    <t>85,49%</t>
+  </si>
+  <si>
+    <t>87,2%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de dolor de espalda en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>89,83%</t>
+  </si>
+  <si>
+    <t>82,8%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>83,58%</t>
+  </si>
+  <si>
+    <t>75,46%</t>
+  </si>
+  <si>
+    <t>89,59%</t>
+  </si>
+  <si>
+    <t>86,75%</t>
+  </si>
+  <si>
+    <t>81,96%</t>
+  </si>
+  <si>
+    <t>90,43%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>93,35%</t>
+  </si>
+  <si>
+    <t>85,34%</t>
+  </si>
+  <si>
+    <t>82,06%</t>
+  </si>
+  <si>
+    <t>88,13%</t>
+  </si>
+  <si>
+    <t>88,26%</t>
+  </si>
+  <si>
+    <t>85,98%</t>
+  </si>
+  <si>
+    <t>89,99%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>92,1%</t>
+  </si>
+  <si>
+    <t>90,17%</t>
+  </si>
+  <si>
+    <t>93,59%</t>
+  </si>
+  <si>
+    <t>86,48%</t>
+  </si>
+  <si>
+    <t>84,25%</t>
+  </si>
+  <si>
+    <t>88,55%</t>
+  </si>
+  <si>
+    <t>89,26%</t>
+  </si>
+  <si>
+    <t>87,88%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>91,57%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>89,33%</t>
+  </si>
+  <si>
+    <t>91,56%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>90,81%</t>
+  </si>
+  <si>
+    <t>88,83%</t>
+  </si>
+  <si>
+    <t>92,71%</t>
+  </si>
+  <si>
+    <t>83,96%</t>
+  </si>
+  <si>
+    <t>81,31%</t>
+  </si>
+  <si>
+    <t>86,11%</t>
+  </si>
+  <si>
+    <t>85,48%</t>
+  </si>
+  <si>
+    <t>88,63%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
     <t>12,75%</t>
   </si>
   <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>93,62%</t>
-  </si>
-  <si>
-    <t>91,47%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>84,9%</t>
-  </si>
-  <si>
-    <t>82,17%</t>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>91,82%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
+  </si>
+  <si>
+    <t>86,1%</t>
   </si>
   <si>
     <t>87,25%</t>
   </si>
   <si>
-    <t>89,2%</t>
-  </si>
-  <si>
-    <t>87,48%</t>
-  </si>
-  <si>
-    <t>90,68%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
+    <t>88,9%</t>
+  </si>
+  <si>
+    <t>88,15%</t>
+  </si>
+  <si>
+    <t>89,63%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de dolor de espalda en 2023 (Tasa respuesta: 99,91%)</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>24,27%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>33,23%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>39,94%</t>
+  </si>
+  <si>
+    <t>29,3%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>34,56%</t>
+  </si>
+  <si>
+    <t>75,73%</t>
+  </si>
+  <si>
+    <t>67,23%</t>
+  </si>
+  <si>
+    <t>83,14%</t>
+  </si>
+  <si>
+    <t>66,77%</t>
+  </si>
+  <si>
+    <t>60,06%</t>
+  </si>
+  <si>
+    <t>73,39%</t>
+  </si>
+  <si>
+    <t>70,7%</t>
+  </si>
+  <si>
+    <t>65,44%</t>
+  </si>
+  <si>
+    <t>75,05%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
   </si>
   <si>
     <t>16,81%</t>
   </si>
   <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>92,07%</t>
-  </si>
-  <si>
-    <t>89,95%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>80,79%</t>
-  </si>
-  <si>
-    <t>78,3%</t>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>29,4%</t>
+  </si>
+  <si>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>32,85%</t>
+  </si>
+  <si>
+    <t>24,84%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>27,17%</t>
+  </si>
+  <si>
+    <t>80,29%</t>
+  </si>
+  <si>
+    <t>76,74%</t>
   </si>
   <si>
     <t>83,19%</t>
   </si>
   <si>
-    <t>86,14%</t>
-  </si>
-  <si>
-    <t>84,45%</t>
-  </si>
-  <si>
-    <t>87,65%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>90,98%</t>
-  </si>
-  <si>
-    <t>89,88%</t>
-  </si>
-  <si>
-    <t>92,05%</t>
-  </si>
-  <si>
-    <t>81,84%</t>
-  </si>
-  <si>
-    <t>80,44%</t>
-  </si>
-  <si>
-    <t>83,13%</t>
-  </si>
-  <si>
-    <t>86,33%</t>
-  </si>
-  <si>
-    <t>85,4%</t>
-  </si>
-  <si>
-    <t>87,17%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de dolor de espalda en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>89,83%</t>
-  </si>
-  <si>
-    <t>83,18%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>83,58%</t>
-  </si>
-  <si>
-    <t>75,52%</t>
-  </si>
-  <si>
-    <t>90,42%</t>
-  </si>
-  <si>
-    <t>86,75%</t>
-  </si>
-  <si>
-    <t>81,33%</t>
-  </si>
-  <si>
-    <t>91,0%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>91,19%</t>
-  </si>
-  <si>
-    <t>88,31%</t>
-  </si>
-  <si>
-    <t>93,34%</t>
-  </si>
-  <si>
-    <t>85,34%</t>
-  </si>
-  <si>
-    <t>82,16%</t>
-  </si>
-  <si>
-    <t>88,07%</t>
-  </si>
-  <si>
-    <t>88,26%</t>
-  </si>
-  <si>
-    <t>86,11%</t>
-  </si>
-  <si>
-    <t>90,19%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>92,1%</t>
-  </si>
-  <si>
-    <t>90,21%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
-  </si>
-  <si>
-    <t>86,48%</t>
-  </si>
-  <si>
-    <t>84,18%</t>
-  </si>
-  <si>
-    <t>88,7%</t>
-  </si>
-  <si>
-    <t>89,26%</t>
-  </si>
-  <si>
-    <t>87,78%</t>
-  </si>
-  <si>
-    <t>90,65%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>93,47%</t>
-  </si>
-  <si>
-    <t>91,66%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>89,33%</t>
-  </si>
-  <si>
-    <t>86,86%</t>
-  </si>
-  <si>
-    <t>91,55%</t>
-  </si>
-  <si>
-    <t>91,37%</t>
-  </si>
-  <si>
-    <t>89,71%</t>
-  </si>
-  <si>
-    <t>92,63%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>90,81%</t>
-  </si>
-  <si>
-    <t>88,61%</t>
-  </si>
-  <si>
-    <t>92,5%</t>
-  </si>
-  <si>
-    <t>83,96%</t>
-  </si>
-  <si>
-    <t>81,4%</t>
-  </si>
-  <si>
-    <t>86,29%</t>
-  </si>
-  <si>
-    <t>87,2%</t>
-  </si>
-  <si>
-    <t>85,62%</t>
-  </si>
-  <si>
-    <t>88,65%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>91,82%</t>
-  </si>
-  <si>
-    <t>90,87%</t>
-  </si>
-  <si>
-    <t>92,75%</t>
-  </si>
-  <si>
-    <t>86,1%</t>
-  </si>
-  <si>
-    <t>84,79%</t>
-  </si>
-  <si>
-    <t>88,9%</t>
-  </si>
-  <si>
-    <t>88,05%</t>
-  </si>
-  <si>
-    <t>89,6%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de dolor de espalda en 2023 (Tasa respuesta: 99,91%)</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>24,27%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>32,73%</t>
-  </si>
-  <si>
-    <t>33,23%</t>
-  </si>
-  <si>
-    <t>27,17%</t>
-  </si>
-  <si>
-    <t>40,27%</t>
-  </si>
-  <si>
-    <t>29,3%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>34,61%</t>
-  </si>
-  <si>
-    <t>75,73%</t>
-  </si>
-  <si>
-    <t>67,27%</t>
-  </si>
-  <si>
-    <t>83,24%</t>
-  </si>
-  <si>
-    <t>66,77%</t>
-  </si>
-  <si>
-    <t>59,73%</t>
-  </si>
-  <si>
-    <t>72,83%</t>
-  </si>
-  <si>
-    <t>70,7%</t>
-  </si>
-  <si>
-    <t>65,39%</t>
-  </si>
-  <si>
-    <t>75,18%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>29,4%</t>
-  </si>
-  <si>
-    <t>32,51%</t>
-  </si>
-  <si>
-    <t>24,84%</t>
-  </si>
-  <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>27,2%</t>
-  </si>
-  <si>
-    <t>80,29%</t>
-  </si>
-  <si>
-    <t>76,7%</t>
-  </si>
-  <si>
-    <t>83,08%</t>
-  </si>
-  <si>
     <t>66,18%</t>
   </si>
   <si>
-    <t>57,08%</t>
-  </si>
-  <si>
-    <t>70,55%</t>
+    <t>56,22%</t>
+  </si>
+  <si>
+    <t>70,27%</t>
   </si>
   <si>
     <t>72,81%</t>
   </si>
   <si>
+    <t>66,58%</t>
+  </si>
+  <si>
+    <t>75,53%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>32,12%</t>
+  </si>
+  <si>
+    <t>29,79%</t>
+  </si>
+  <si>
+    <t>34,82%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>26,35%</t>
+  </si>
+  <si>
+    <t>83,52%</t>
+  </si>
+  <si>
+    <t>80,7%</t>
+  </si>
+  <si>
+    <t>86,31%</t>
+  </si>
+  <si>
     <t>67,75%</t>
   </si>
   <si>
-    <t>75,5%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>32,12%</t>
-  </si>
-  <si>
-    <t>29,74%</t>
-  </si>
-  <si>
-    <t>34,67%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>83,52%</t>
-  </si>
-  <si>
-    <t>80,98%</t>
-  </si>
-  <si>
-    <t>86,35%</t>
-  </si>
-  <si>
-    <t>65,16%</t>
-  </si>
-  <si>
-    <t>70,14%</t>
+    <t>65,13%</t>
+  </si>
+  <si>
+    <t>70,13%</t>
   </si>
   <si>
     <t>75,55%</t>
   </si>
   <si>
-    <t>73,6%</t>
-  </si>
-  <si>
-    <t>77,96%</t>
+    <t>78,02%</t>
   </si>
   <si>
     <t>20,24%</t>
   </si>
   <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
+    <t>23,6%</t>
   </si>
   <si>
     <t>41,45%</t>
   </si>
   <si>
-    <t>31,98%</t>
-  </si>
-  <si>
-    <t>60,71%</t>
+    <t>31,83%</t>
+  </si>
+  <si>
+    <t>61,86%</t>
   </si>
   <si>
     <t>31,82%</t>
   </si>
   <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>47,6%</t>
+  </si>
+  <si>
+    <t>79,76%</t>
+  </si>
+  <si>
+    <t>76,4%</t>
+  </si>
+  <si>
+    <t>58,55%</t>
+  </si>
+  <si>
+    <t>38,14%</t>
+  </si>
+  <si>
+    <t>68,17%</t>
+  </si>
+  <si>
+    <t>68,18%</t>
+  </si>
+  <si>
+    <t>52,4%</t>
+  </si>
+  <si>
+    <t>74,09%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>27,25%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>29,85%</t>
+  </si>
+  <si>
+    <t>23,68%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>80,57%</t>
+  </si>
+  <si>
+    <t>77,94%</t>
+  </si>
+  <si>
+    <t>82,95%</t>
+  </si>
+  <si>
+    <t>72,51%</t>
+  </si>
+  <si>
+    <t>69,88%</t>
+  </si>
+  <si>
+    <t>74,99%</t>
+  </si>
+  <si>
+    <t>76,19%</t>
+  </si>
+  <si>
+    <t>74,44%</t>
+  </si>
+  <si>
+    <t>77,95%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>32,38%</t>
+  </si>
+  <si>
+    <t>29,92%</t>
+  </si>
+  <si>
+    <t>39,56%</t>
+  </si>
+  <si>
     <t>26,06%</t>
   </si>
   <si>
-    <t>49,72%</t>
-  </si>
-  <si>
-    <t>79,76%</t>
-  </si>
-  <si>
-    <t>76,38%</t>
-  </si>
-  <si>
-    <t>82,73%</t>
-  </si>
-  <si>
-    <t>58,55%</t>
-  </si>
-  <si>
-    <t>39,29%</t>
-  </si>
-  <si>
-    <t>68,02%</t>
-  </si>
-  <si>
-    <t>68,18%</t>
-  </si>
-  <si>
-    <t>50,28%</t>
-  </si>
-  <si>
-    <t>73,94%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>22,03%</t>
-  </si>
-  <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>24,77%</t>
-  </si>
-  <si>
-    <t>29,82%</t>
-  </si>
-  <si>
-    <t>23,68%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>80,57%</t>
-  </si>
-  <si>
-    <t>77,97%</t>
-  </si>
-  <si>
-    <t>82,83%</t>
-  </si>
-  <si>
-    <t>72,51%</t>
-  </si>
-  <si>
-    <t>70,0%</t>
-  </si>
-  <si>
-    <t>75,02%</t>
-  </si>
-  <si>
-    <t>76,19%</t>
-  </si>
-  <si>
-    <t>74,24%</t>
-  </si>
-  <si>
-    <t>78,01%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>32,38%</t>
-  </si>
-  <si>
-    <t>29,8%</t>
-  </si>
-  <si>
-    <t>38,53%</t>
-  </si>
-  <si>
-    <t>24,45%</t>
-  </si>
-  <si>
-    <t>30,13%</t>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>29,65%</t>
   </si>
   <si>
     <t>81,11%</t>
   </si>
   <si>
-    <t>79,66%</t>
-  </si>
-  <si>
-    <t>82,6%</t>
+    <t>79,65%</t>
+  </si>
+  <si>
+    <t>82,61%</t>
   </si>
   <si>
     <t>66,8%</t>
   </si>
   <si>
-    <t>60,46%</t>
-  </si>
-  <si>
-    <t>69,48%</t>
+    <t>59,83%</t>
+  </si>
+  <si>
+    <t>69,4%</t>
   </si>
   <si>
     <t>73,5%</t>
   </si>
   <si>
-    <t>69,24%</t>
-  </si>
-  <si>
-    <t>75,14%</t>
+    <t>69,72%</t>
+  </si>
+  <si>
+    <t>75,13%</t>
   </si>
 </sst>
 </file>
@@ -1944,7 +1902,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA562E3E-80F3-4FC0-B1DD-BAD0D29F56CA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F587B2B5-1BB8-4D51-A3F1-3B48A0DDF9FD}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3313,7 +3271,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43474ED9-E7F1-41F9-A77A-851507F470CF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C3A5DAF-D8D3-4648-831B-9BE6379932FB}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3712,10 +3670,10 @@
         <v>170</v>
       </c>
       <c r="K9" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="M9" s="7">
         <v>178</v>
@@ -3724,13 +3682,13 @@
         <v>191764</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3745,13 +3703,13 @@
         <v>517852</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="H10" s="7">
         <v>439</v>
@@ -3760,13 +3718,13 @@
         <v>463233</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="K10" s="7" t="s">
-        <v>180</v>
-      </c>
       <c r="L10" s="7" t="s">
-        <v>181</v>
+        <v>140</v>
       </c>
       <c r="M10" s="7">
         <v>925</v>
@@ -3775,13 +3733,13 @@
         <v>981085</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3855,7 +3813,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -3870,7 +3828,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -3900,13 +3858,13 @@
         <v>106298</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="H13" s="7">
         <v>164</v>
@@ -3915,13 +3873,13 @@
         <v>181041</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="M13" s="7">
         <v>261</v>
@@ -3930,13 +3888,13 @@
         <v>287339</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3951,13 +3909,13 @@
         <v>911649</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="H14" s="7">
         <v>774</v>
@@ -3966,13 +3924,13 @@
         <v>847932</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="M14" s="7">
         <v>1613</v>
@@ -3981,13 +3939,13 @@
         <v>1759581</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4076,7 +4034,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -4106,13 +4064,13 @@
         <v>48371</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="H17" s="7">
         <v>109</v>
@@ -4121,13 +4079,13 @@
         <v>117366</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>210</v>
+        <v>43</v>
       </c>
       <c r="M17" s="7">
         <v>152</v>
@@ -4136,13 +4094,13 @@
         <v>165737</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4157,13 +4115,13 @@
         <v>709252</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="H18" s="7">
         <v>596</v>
@@ -4172,13 +4130,13 @@
         <v>659808</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>218</v>
+        <v>51</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="M18" s="7">
         <v>1242</v>
@@ -4187,13 +4145,13 @@
         <v>1369060</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4312,13 +4270,13 @@
         <v>75150</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="H21" s="7">
         <v>187</v>
@@ -4327,13 +4285,13 @@
         <v>202031</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="M21" s="7">
         <v>258</v>
@@ -4342,13 +4300,13 @@
         <v>277181</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4363,13 +4321,13 @@
         <v>872589</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="H22" s="7">
         <v>816</v>
@@ -4378,13 +4336,13 @@
         <v>849870</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="M22" s="7">
         <v>1655</v>
@@ -4393,13 +4351,13 @@
         <v>1722459</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4518,13 +4476,13 @@
         <v>308953</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="H25" s="7">
         <v>593</v>
@@ -4533,28 +4491,28 @@
         <v>645546</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="M25" s="7">
         <v>881</v>
       </c>
       <c r="N25" s="7">
-        <v>954499</v>
+        <v>954500</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4569,13 +4527,13 @@
         <v>3117826</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="H26" s="7">
         <v>2703</v>
@@ -4584,13 +4542,13 @@
         <v>2909552</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="M26" s="7">
         <v>5624</v>
@@ -4599,13 +4557,13 @@
         <v>6027378</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4647,7 +4605,7 @@
         <v>6505</v>
       </c>
       <c r="N27" s="7">
-        <v>6981877</v>
+        <v>6981878</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>36</v>
@@ -4682,7 +4640,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6490C1C-FF28-4164-9FD9-C2A713EBE90B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29B4A6B0-ACC0-4A5D-8858-52C4B78281FB}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4699,7 +4657,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4812,7 +4770,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4827,7 +4785,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -4842,7 +4800,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4857,13 +4815,13 @@
         <v>11854</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="H5" s="7">
         <v>18</v>
@@ -4872,13 +4830,13 @@
         <v>18612</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="M5" s="7">
         <v>29</v>
@@ -4887,13 +4845,13 @@
         <v>30466</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4908,13 +4866,13 @@
         <v>104692</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="H6" s="7">
         <v>97</v>
@@ -4923,13 +4881,13 @@
         <v>94748</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="M6" s="7">
         <v>199</v>
@@ -4938,13 +4896,13 @@
         <v>199440</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5018,7 +4976,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -5048,7 +5006,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5063,13 +5021,13 @@
         <v>49172</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>285</v>
+        <v>42</v>
       </c>
       <c r="H9" s="7">
         <v>77</v>
@@ -5078,13 +5036,13 @@
         <v>82030</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="M9" s="7">
         <v>125</v>
@@ -5093,13 +5051,13 @@
         <v>131202</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5114,13 +5072,13 @@
         <v>509082</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>293</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="H10" s="7">
         <v>474</v>
@@ -5129,13 +5087,13 @@
         <v>477449</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="M10" s="7">
         <v>965</v>
@@ -5144,13 +5102,13 @@
         <v>986531</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5224,7 +5182,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -5239,7 +5197,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -5269,13 +5227,13 @@
         <v>80772</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="H13" s="7">
         <v>125</v>
@@ -5284,13 +5242,13 @@
         <v>140973</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="M13" s="7">
         <v>201</v>
@@ -5299,13 +5257,13 @@
         <v>221745</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5320,13 +5278,13 @@
         <v>941659</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="H14" s="7">
         <v>852</v>
@@ -5335,13 +5293,13 @@
         <v>901940</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="M14" s="7">
         <v>1727</v>
@@ -5350,13 +5308,13 @@
         <v>1843599</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5445,7 +5403,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -5460,7 +5418,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5475,13 +5433,13 @@
         <v>49575</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="H17" s="7">
         <v>76</v>
@@ -5490,13 +5448,13 @@
         <v>83727</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>326</v>
+        <v>48</v>
       </c>
       <c r="M17" s="7">
         <v>123</v>
@@ -5505,13 +5463,13 @@
         <v>133302</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>327</v>
+        <v>185</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>329</v>
+        <v>239</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5526,13 +5484,13 @@
         <v>709977</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="H18" s="7">
         <v>660</v>
@@ -5541,13 +5499,13 @@
         <v>701284</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>334</v>
+        <v>58</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="M18" s="7">
         <v>1309</v>
@@ -5556,13 +5514,13 @@
         <v>1411261</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>336</v>
+        <v>195</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>337</v>
+        <v>247</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5651,7 +5609,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -5681,13 +5639,13 @@
         <v>86116</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="H21" s="7">
         <v>147</v>
@@ -5696,13 +5654,13 @@
         <v>167398</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="M21" s="7">
         <v>228</v>
@@ -5711,13 +5669,13 @@
         <v>253514</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>345</v>
+        <v>244</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>346</v>
+        <v>333</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5732,13 +5690,13 @@
         <v>851451</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="H22" s="7">
         <v>812</v>
@@ -5747,13 +5705,13 @@
         <v>876381</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>353</v>
+        <v>340</v>
       </c>
       <c r="M22" s="7">
         <v>1663</v>
@@ -5762,13 +5720,13 @@
         <v>1727832</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>354</v>
+        <v>254</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>355</v>
+        <v>341</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>356</v>
+        <v>342</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5887,13 +5845,13 @@
         <v>277488</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>357</v>
+        <v>343</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>358</v>
+        <v>344</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>359</v>
+        <v>345</v>
       </c>
       <c r="H25" s="7">
         <v>443</v>
@@ -5902,13 +5860,13 @@
         <v>492741</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>360</v>
+        <v>346</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>209</v>
+        <v>347</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>361</v>
+        <v>47</v>
       </c>
       <c r="M25" s="7">
         <v>706</v>
@@ -5917,13 +5875,13 @@
         <v>770229</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>362</v>
+        <v>348</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>363</v>
+        <v>349</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>364</v>
+        <v>350</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5938,13 +5896,13 @@
         <v>3116862</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>365</v>
+        <v>351</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>367</v>
+        <v>353</v>
       </c>
       <c r="H26" s="7">
         <v>2895</v>
@@ -5953,13 +5911,13 @@
         <v>3051801</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>368</v>
+        <v>354</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>369</v>
+        <v>56</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>219</v>
+        <v>355</v>
       </c>
       <c r="M26" s="7">
         <v>5863</v>
@@ -5968,13 +5926,13 @@
         <v>6168663</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>370</v>
+        <v>356</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>371</v>
+        <v>357</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>372</v>
+        <v>358</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6051,7 +6009,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC1D60D7-28F4-4FEE-9A61-173BE8A2E8FA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F5A7271-B1BF-4C78-BE81-71700DDD3BE2}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6068,7 +6026,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>373</v>
+        <v>359</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6181,7 +6139,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>374</v>
+        <v>360</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -6196,7 +6154,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>375</v>
+        <v>361</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -6211,7 +6169,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>376</v>
+        <v>362</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6226,13 +6184,13 @@
         <v>24754</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>377</v>
+        <v>363</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>378</v>
+        <v>364</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
       <c r="H5" s="7">
         <v>87</v>
@@ -6241,13 +6199,13 @@
         <v>43440</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>380</v>
+        <v>366</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>381</v>
+        <v>367</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>382</v>
+        <v>368</v>
       </c>
       <c r="M5" s="7">
         <v>121</v>
@@ -6256,13 +6214,13 @@
         <v>68194</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>383</v>
+        <v>369</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>384</v>
+        <v>370</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>385</v>
+        <v>371</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6277,13 +6235,13 @@
         <v>77228</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>386</v>
+        <v>372</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>387</v>
+        <v>373</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>388</v>
+        <v>374</v>
       </c>
       <c r="H6" s="7">
         <v>156</v>
@@ -6292,13 +6250,13 @@
         <v>87293</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>390</v>
+        <v>376</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>391</v>
+        <v>377</v>
       </c>
       <c r="M6" s="7">
         <v>240</v>
@@ -6307,13 +6265,13 @@
         <v>164521</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>392</v>
+        <v>378</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>393</v>
+        <v>379</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>394</v>
+        <v>380</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6387,7 +6345,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
       <c r="H8" s="7">
         <v>3</v>
@@ -6396,13 +6354,13 @@
         <v>27412</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>396</v>
+        <v>382</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>397</v>
+        <v>383</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>398</v>
+        <v>384</v>
       </c>
       <c r="M8" s="7">
         <v>3</v>
@@ -6411,13 +6369,13 @@
         <v>27412</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>399</v>
+        <v>385</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>400</v>
+        <v>123</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>401</v>
+        <v>386</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6432,13 +6390,13 @@
         <v>108357</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>402</v>
+        <v>387</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>403</v>
+        <v>388</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>404</v>
+        <v>389</v>
       </c>
       <c r="H9" s="7">
         <v>350</v>
@@ -6447,13 +6405,13 @@
         <v>182241</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>405</v>
+        <v>390</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>406</v>
+        <v>392</v>
       </c>
       <c r="M9" s="7">
         <v>489</v>
@@ -6462,13 +6420,13 @@
         <v>290598</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>407</v>
+        <v>393</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>408</v>
+        <v>394</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>409</v>
+        <v>395</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6483,13 +6441,13 @@
         <v>441466</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
       <c r="H10" s="7">
         <v>645</v>
@@ -6498,13 +6456,13 @@
         <v>410314</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>413</v>
+        <v>399</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>414</v>
+        <v>400</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>415</v>
+        <v>401</v>
       </c>
       <c r="M10" s="7">
         <v>1118</v>
@@ -6513,13 +6471,13 @@
         <v>851780</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>416</v>
+        <v>402</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>417</v>
+        <v>403</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>418</v>
+        <v>404</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6593,7 +6551,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H12" s="7">
         <v>2</v>
@@ -6602,13 +6560,13 @@
         <v>1323</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>419</v>
+        <v>405</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>420</v>
+        <v>406</v>
       </c>
       <c r="M12" s="7">
         <v>2</v>
@@ -6623,7 +6581,7 @@
         <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>421</v>
+        <v>183</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6638,13 +6596,13 @@
         <v>170731</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>422</v>
+        <v>407</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>423</v>
+        <v>408</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>424</v>
+        <v>409</v>
       </c>
       <c r="H13" s="7">
         <v>537</v>
@@ -6653,13 +6611,13 @@
         <v>340285</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>425</v>
+        <v>410</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>426</v>
+        <v>411</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>427</v>
+        <v>412</v>
       </c>
       <c r="M13" s="7">
         <v>733</v>
@@ -6668,13 +6626,13 @@
         <v>511015</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>428</v>
+        <v>413</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>429</v>
+        <v>414</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>430</v>
+        <v>415</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6689,13 +6647,13 @@
         <v>865208</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>432</v>
+        <v>417</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>433</v>
+        <v>418</v>
       </c>
       <c r="H14" s="7">
         <v>977</v>
@@ -6704,13 +6662,13 @@
         <v>717785</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>434</v>
+        <v>420</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>435</v>
+        <v>421</v>
       </c>
       <c r="M14" s="7">
         <v>1743</v>
@@ -6719,13 +6677,13 @@
         <v>1582994</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>436</v>
+        <v>422</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>437</v>
+        <v>96</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>438</v>
+        <v>423</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6814,7 +6772,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -6844,13 +6802,13 @@
         <v>147164</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>439</v>
+        <v>424</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>440</v>
+        <v>20</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>441</v>
+        <v>425</v>
       </c>
       <c r="H17" s="7">
         <v>368</v>
@@ -6859,13 +6817,13 @@
         <v>362358</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>442</v>
+        <v>426</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>443</v>
+        <v>427</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="M17" s="7">
         <v>522</v>
@@ -6874,13 +6832,13 @@
         <v>509522</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>445</v>
+        <v>429</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>447</v>
+        <v>431</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6895,13 +6853,13 @@
         <v>579760</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>448</v>
+        <v>432</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>449</v>
+        <v>433</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>450</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
         <v>678</v>
@@ -6910,13 +6868,13 @@
         <v>511854</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>451</v>
+        <v>434</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>452</v>
+        <v>435</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>453</v>
+        <v>436</v>
       </c>
       <c r="M18" s="7">
         <v>1198</v>
@@ -6925,13 +6883,13 @@
         <v>1091613</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>454</v>
+        <v>437</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>455</v>
+        <v>438</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>456</v>
+        <v>439</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7014,13 +6972,13 @@
         <v>2762</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>457</v>
+        <v>440</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>458</v>
+        <v>441</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -7029,13 +6987,13 @@
         <v>2762</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>459</v>
+        <v>442</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7050,13 +7008,13 @@
         <v>187412</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>460</v>
+        <v>443</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>461</v>
+        <v>444</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>462</v>
+        <v>445</v>
       </c>
       <c r="H21" s="7">
         <v>477</v>
@@ -7065,13 +7023,13 @@
         <v>313239</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>463</v>
+        <v>446</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>465</v>
+        <v>448</v>
       </c>
       <c r="M21" s="7">
         <v>692</v>
@@ -7080,13 +7038,13 @@
         <v>500651</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>466</v>
+        <v>449</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>467</v>
+        <v>450</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>468</v>
+        <v>451</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7101,13 +7059,13 @@
         <v>777154</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>469</v>
+        <v>452</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>470</v>
+        <v>453</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>471</v>
+        <v>454</v>
       </c>
       <c r="H22" s="7">
         <v>1083</v>
@@ -7116,13 +7074,13 @@
         <v>833705</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>472</v>
+        <v>455</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>473</v>
+        <v>456</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>474</v>
+        <v>457</v>
       </c>
       <c r="M22" s="7">
         <v>1873</v>
@@ -7131,13 +7089,13 @@
         <v>1610859</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>475</v>
+        <v>458</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>476</v>
+        <v>459</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>477</v>
+        <v>460</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7223,10 +7181,10 @@
         <v>15</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>478</v>
+        <v>461</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>479</v>
+        <v>462</v>
       </c>
       <c r="M24" s="7">
         <v>6</v>
@@ -7235,13 +7193,13 @@
         <v>31497</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>480</v>
+        <v>463</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>400</v>
+        <v>464</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>13</v>
+        <v>465</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7256,13 +7214,13 @@
         <v>638416</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>481</v>
+        <v>466</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>482</v>
+        <v>467</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>483</v>
+        <v>468</v>
       </c>
       <c r="H25" s="7">
         <v>1819</v>
@@ -7271,13 +7229,13 @@
         <v>1241563</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>484</v>
+        <v>469</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>485</v>
+        <v>470</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>486</v>
+        <v>471</v>
       </c>
       <c r="M25" s="7">
         <v>2557</v>
@@ -7286,13 +7244,13 @@
         <v>1879979</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>446</v>
+        <v>472</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>487</v>
+        <v>473</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>488</v>
+        <v>474</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7307,13 +7265,13 @@
         <v>2740818</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>489</v>
+        <v>475</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>490</v>
+        <v>476</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>491</v>
+        <v>477</v>
       </c>
       <c r="H26" s="7">
         <v>3539</v>
@@ -7322,28 +7280,28 @@
         <v>2560950</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>492</v>
+        <v>478</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>493</v>
+        <v>479</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>494</v>
+        <v>480</v>
       </c>
       <c r="M26" s="7">
         <v>6172</v>
       </c>
       <c r="N26" s="7">
-        <v>5301766</v>
+        <v>5301767</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>495</v>
+        <v>481</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>497</v>
+        <v>483</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7385,7 +7343,7 @@
         <v>8735</v>
       </c>
       <c r="N27" s="7">
-        <v>7213242</v>
+        <v>7213243</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>36</v>

--- a/data/trans_orig/P1413-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1413-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{86E24A3F-C97F-49B9-BACA-BF3118FAC3DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{932054A6-A8EA-415C-986C-04EF63FEC0A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{08FC2927-3F23-458B-BA90-9E93B9426424}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{860A138D-68E5-415D-B0F0-DDC34381EE7F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="482">
   <si>
     <t>Población con diagnóstico de dolor de espalda en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>No recogida</t>
@@ -95,19 +95,19 @@
     <t>17,29%</t>
   </si>
   <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>25,19%</t>
   </si>
   <si>
     <t>17,16%</t>
   </si>
   <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>24,01%</t>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
   </si>
   <si>
     <t>17,22%</t>
@@ -116,7 +116,7 @@
     <t>12,81%</t>
   </si>
   <si>
-    <t>22,73%</t>
+    <t>22,32%</t>
   </si>
   <si>
     <t>No</t>
@@ -125,25 +125,25 @@
     <t>82,71%</t>
   </si>
   <si>
-    <t>74,88%</t>
-  </si>
-  <si>
-    <t>89,19%</t>
+    <t>74,81%</t>
+  </si>
+  <si>
+    <t>89,33%</t>
   </si>
   <si>
     <t>82,84%</t>
   </si>
   <si>
-    <t>75,99%</t>
-  </si>
-  <si>
-    <t>88,82%</t>
+    <t>75,18%</t>
+  </si>
+  <si>
+    <t>88,89%</t>
   </si>
   <si>
     <t>82,78%</t>
   </si>
   <si>
-    <t>77,27%</t>
+    <t>77,68%</t>
   </si>
   <si>
     <t>87,19%</t>
@@ -152,7 +152,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>0,33%</t>
@@ -167,955 +167,955 @@
     <t>14,4%</t>
   </si>
   <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
   </si>
   <si>
     <t>15,79%</t>
   </si>
   <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>85,6%</t>
+  </si>
+  <si>
+    <t>82,62%</t>
+  </si>
+  <si>
+    <t>88,22%</t>
+  </si>
+  <si>
+    <t>84,21%</t>
+  </si>
+  <si>
+    <t>80,9%</t>
+  </si>
+  <si>
+    <t>84,91%</t>
+  </si>
+  <si>
+    <t>82,68%</t>
+  </si>
+  <si>
+    <t>86,83%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>86,51%</t>
+  </si>
+  <si>
+    <t>84,19%</t>
+  </si>
+  <si>
+    <t>88,9%</t>
+  </si>
+  <si>
+    <t>80,27%</t>
+  </si>
+  <si>
+    <t>77,44%</t>
+  </si>
+  <si>
+    <t>82,81%</t>
+  </si>
+  <si>
+    <t>83,38%</t>
+  </si>
+  <si>
+    <t>81,43%</t>
+  </si>
+  <si>
+    <t>84,96%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>23,31%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>23,24%</t>
+  </si>
+  <si>
+    <t>29,63%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>79,8%</t>
+  </si>
+  <si>
+    <t>76,69%</t>
+  </si>
+  <si>
+    <t>82,69%</t>
+  </si>
+  <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>70,37%</t>
+  </si>
+  <si>
+    <t>76,76%</t>
+  </si>
+  <si>
+    <t>76,68%</t>
+  </si>
+  <si>
+    <t>74,32%</t>
+  </si>
+  <si>
+    <t>78,87%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>83,0%</t>
+  </si>
+  <si>
+    <t>80,59%</t>
+  </si>
+  <si>
+    <t>85,16%</t>
+  </si>
+  <si>
+    <t>83,79%</t>
+  </si>
+  <si>
+    <t>81,44%</t>
+  </si>
+  <si>
+    <t>85,97%</t>
+  </si>
+  <si>
+    <t>83,42%</t>
+  </si>
+  <si>
+    <t>81,83%</t>
+  </si>
+  <si>
+    <t>85,01%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>83,82%</t>
+  </si>
+  <si>
+    <t>82,45%</t>
+  </si>
+  <si>
+    <t>85,0%</t>
+  </si>
+  <si>
+    <t>80,76%</t>
+  </si>
+  <si>
+    <t>79,41%</t>
+  </si>
+  <si>
+    <t>82,09%</t>
+  </si>
+  <si>
+    <t>82,26%</t>
+  </si>
+  <si>
+    <t>81,28%</t>
+  </si>
+  <si>
+    <t>83,18%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de dolor de espalda en 2012 (Tasa respuesta: 99,97%)</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
+  </si>
+  <si>
+    <t>86,75%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>79,27%</t>
+  </si>
+  <si>
+    <t>70,9%</t>
+  </si>
+  <si>
+    <t>86,14%</t>
+  </si>
+  <si>
+    <t>85,73%</t>
+  </si>
+  <si>
+    <t>80,93%</t>
+  </si>
+  <si>
+    <t>90,16%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>24,66%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>88,11%</t>
+  </si>
+  <si>
+    <t>85,04%</t>
+  </si>
+  <si>
+    <t>90,58%</t>
+  </si>
+  <si>
+    <t>79,17%</t>
+  </si>
+  <si>
+    <t>75,34%</t>
+  </si>
+  <si>
+    <t>82,49%</t>
+  </si>
+  <si>
+    <t>83,65%</t>
+  </si>
+  <si>
+    <t>81,07%</t>
+  </si>
+  <si>
+    <t>85,88%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>89,56%</t>
+  </si>
+  <si>
+    <t>87,48%</t>
+  </si>
+  <si>
+    <t>91,56%</t>
+  </si>
+  <si>
+    <t>82,41%</t>
+  </si>
+  <si>
+    <t>79,85%</t>
+  </si>
+  <si>
+    <t>84,62%</t>
+  </si>
+  <si>
+    <t>85,96%</t>
+  </si>
+  <si>
+    <t>84,37%</t>
+  </si>
+  <si>
+    <t>87,52%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>93,62%</t>
+  </si>
+  <si>
+    <t>91,29%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>84,9%</t>
+  </si>
+  <si>
+    <t>81,78%</t>
+  </si>
+  <si>
+    <t>87,24%</t>
+  </si>
+  <si>
+    <t>89,2%</t>
+  </si>
+  <si>
+    <t>90,75%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>90,03%</t>
+  </si>
+  <si>
+    <t>93,61%</t>
+  </si>
+  <si>
+    <t>80,79%</t>
+  </si>
+  <si>
+    <t>78,01%</t>
+  </si>
+  <si>
+    <t>83,15%</t>
+  </si>
+  <si>
+    <t>84,54%</t>
+  </si>
+  <si>
+    <t>87,78%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>90,98%</t>
+  </si>
+  <si>
+    <t>89,96%</t>
+  </si>
+  <si>
+    <t>92,01%</t>
+  </si>
+  <si>
+    <t>81,84%</t>
+  </si>
+  <si>
+    <t>80,55%</t>
+  </si>
+  <si>
+    <t>83,14%</t>
+  </si>
+  <si>
+    <t>86,33%</t>
+  </si>
+  <si>
+    <t>85,4%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de dolor de espalda en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>89,83%</t>
+  </si>
+  <si>
+    <t>83,3%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>83,58%</t>
+  </si>
+  <si>
+    <t>74,77%</t>
+  </si>
+  <si>
+    <t>89,44%</t>
+  </si>
+  <si>
+    <t>81,66%</t>
+  </si>
+  <si>
+    <t>90,94%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>88,45%</t>
+  </si>
+  <si>
+    <t>93,28%</t>
+  </si>
+  <si>
+    <t>85,34%</t>
+  </si>
+  <si>
+    <t>81,7%</t>
+  </si>
+  <si>
+    <t>88,16%</t>
+  </si>
+  <si>
+    <t>88,26%</t>
+  </si>
+  <si>
+    <t>86,16%</t>
+  </si>
+  <si>
+    <t>90,17%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>92,1%</t>
+  </si>
+  <si>
+    <t>90,26%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>86,48%</t>
+  </si>
+  <si>
+    <t>84,17%</t>
+  </si>
+  <si>
+    <t>88,51%</t>
+  </si>
+  <si>
+    <t>89,26%</t>
+  </si>
+  <si>
+    <t>87,74%</t>
+  </si>
+  <si>
+    <t>90,71%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
     <t>13,07%</t>
   </si>
   <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>85,6%</t>
-  </si>
-  <si>
-    <t>82,2%</t>
-  </si>
-  <si>
-    <t>88,28%</t>
-  </si>
-  <si>
-    <t>84,21%</t>
-  </si>
-  <si>
-    <t>81,09%</t>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>91,57%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
   </si>
   <si>
     <t>86,93%</t>
   </si>
   <si>
-    <t>84,91%</t>
-  </si>
-  <si>
-    <t>82,97%</t>
-  </si>
-  <si>
-    <t>86,98%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>86,51%</t>
-  </si>
-  <si>
-    <t>84,22%</t>
-  </si>
-  <si>
-    <t>88,68%</t>
-  </si>
-  <si>
-    <t>80,27%</t>
-  </si>
-  <si>
-    <t>77,56%</t>
-  </si>
-  <si>
-    <t>82,68%</t>
-  </si>
-  <si>
-    <t>83,38%</t>
-  </si>
-  <si>
-    <t>81,6%</t>
-  </si>
-  <si>
-    <t>85,04%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>23,7%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>29,43%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>79,8%</t>
-  </si>
-  <si>
-    <t>76,3%</t>
-  </si>
-  <si>
-    <t>82,67%</t>
-  </si>
-  <si>
-    <t>73,58%</t>
-  </si>
-  <si>
-    <t>70,57%</t>
-  </si>
-  <si>
-    <t>76,97%</t>
-  </si>
-  <si>
-    <t>76,68%</t>
-  </si>
-  <si>
-    <t>74,18%</t>
-  </si>
-  <si>
-    <t>78,8%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>83,0%</t>
-  </si>
-  <si>
-    <t>80,55%</t>
-  </si>
-  <si>
-    <t>85,15%</t>
-  </si>
-  <si>
-    <t>83,79%</t>
-  </si>
-  <si>
-    <t>81,55%</t>
-  </si>
-  <si>
-    <t>85,88%</t>
-  </si>
-  <si>
-    <t>83,42%</t>
-  </si>
-  <si>
-    <t>81,77%</t>
-  </si>
-  <si>
-    <t>85,07%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>83,82%</t>
-  </si>
-  <si>
-    <t>82,36%</t>
-  </si>
-  <si>
-    <t>85,01%</t>
-  </si>
-  <si>
-    <t>80,76%</t>
-  </si>
-  <si>
-    <t>79,38%</t>
-  </si>
-  <si>
-    <t>82,19%</t>
-  </si>
-  <si>
-    <t>82,26%</t>
-  </si>
-  <si>
-    <t>81,37%</t>
-  </si>
-  <si>
-    <t>83,22%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de dolor de espalda en 2012 (Tasa respuesta: 99,97%)</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>29,45%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>91,98%</t>
-  </si>
-  <si>
-    <t>86,15%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>79,27%</t>
-  </si>
-  <si>
-    <t>70,55%</t>
-  </si>
-  <si>
-    <t>86,64%</t>
-  </si>
-  <si>
-    <t>85,73%</t>
-  </si>
-  <si>
-    <t>80,11%</t>
-  </si>
-  <si>
-    <t>89,78%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>88,11%</t>
-  </si>
-  <si>
-    <t>85,24%</t>
-  </si>
-  <si>
-    <t>90,78%</t>
-  </si>
-  <si>
-    <t>79,17%</t>
-  </si>
-  <si>
-    <t>75,3%</t>
-  </si>
-  <si>
-    <t>83,65%</t>
-  </si>
-  <si>
-    <t>81,34%</t>
-  </si>
-  <si>
-    <t>85,83%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>89,56%</t>
-  </si>
-  <si>
-    <t>87,5%</t>
+    <t>91,45%</t>
   </si>
   <si>
     <t>91,37%</t>
   </si>
   <si>
-    <t>82,41%</t>
-  </si>
-  <si>
-    <t>79,84%</t>
-  </si>
-  <si>
-    <t>84,53%</t>
-  </si>
-  <si>
-    <t>85,96%</t>
-  </si>
-  <si>
-    <t>84,41%</t>
-  </si>
-  <si>
-    <t>87,53%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>93,62%</t>
-  </si>
-  <si>
-    <t>91,07%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
-  </si>
-  <si>
-    <t>84,9%</t>
-  </si>
-  <si>
-    <t>87,52%</t>
-  </si>
-  <si>
-    <t>89,2%</t>
-  </si>
-  <si>
-    <t>87,46%</t>
-  </si>
-  <si>
-    <t>90,74%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>92,07%</t>
-  </si>
-  <si>
-    <t>90,03%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
-  </si>
-  <si>
-    <t>80,79%</t>
-  </si>
-  <si>
-    <t>78,21%</t>
-  </si>
-  <si>
-    <t>83,35%</t>
-  </si>
-  <si>
-    <t>86,14%</t>
-  </si>
-  <si>
-    <t>84,44%</t>
-  </si>
-  <si>
-    <t>87,67%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
+    <t>89,82%</t>
+  </si>
+  <si>
+    <t>92,75%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
   </si>
   <si>
     <t>12,8%</t>
   </si>
   <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>90,98%</t>
-  </si>
-  <si>
-    <t>89,93%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>81,84%</t>
-  </si>
-  <si>
-    <t>80,51%</t>
-  </si>
-  <si>
-    <t>83,12%</t>
-  </si>
-  <si>
-    <t>86,33%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>90,81%</t>
+  </si>
+  <si>
+    <t>88,81%</t>
+  </si>
+  <si>
+    <t>92,63%</t>
+  </si>
+  <si>
+    <t>83,96%</t>
+  </si>
+  <si>
+    <t>81,35%</t>
+  </si>
+  <si>
+    <t>86,23%</t>
   </si>
   <si>
     <t>87,2%</t>
   </si>
   <si>
-    <t>Población con diagnóstico de dolor de espalda en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>89,83%</t>
-  </si>
-  <si>
-    <t>82,8%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>83,58%</t>
-  </si>
-  <si>
-    <t>75,46%</t>
-  </si>
-  <si>
-    <t>89,59%</t>
-  </si>
-  <si>
-    <t>86,75%</t>
-  </si>
-  <si>
-    <t>81,96%</t>
-  </si>
-  <si>
-    <t>90,43%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>91,19%</t>
-  </si>
-  <si>
-    <t>93,35%</t>
-  </si>
-  <si>
-    <t>85,34%</t>
-  </si>
-  <si>
-    <t>82,06%</t>
-  </si>
-  <si>
-    <t>88,13%</t>
-  </si>
-  <si>
-    <t>88,26%</t>
-  </si>
-  <si>
-    <t>85,98%</t>
-  </si>
-  <si>
-    <t>89,99%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>92,1%</t>
-  </si>
-  <si>
-    <t>90,17%</t>
-  </si>
-  <si>
-    <t>93,59%</t>
-  </si>
-  <si>
-    <t>86,48%</t>
-  </si>
-  <si>
-    <t>84,25%</t>
-  </si>
-  <si>
-    <t>88,55%</t>
-  </si>
-  <si>
-    <t>89,26%</t>
-  </si>
-  <si>
-    <t>87,88%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>93,47%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>89,33%</t>
-  </si>
-  <si>
-    <t>91,56%</t>
-  </si>
-  <si>
-    <t>92,73%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>90,81%</t>
-  </si>
-  <si>
-    <t>88,83%</t>
-  </si>
-  <si>
-    <t>92,71%</t>
-  </si>
-  <si>
-    <t>83,96%</t>
-  </si>
-  <si>
-    <t>81,31%</t>
-  </si>
-  <si>
-    <t>86,11%</t>
-  </si>
-  <si>
-    <t>85,48%</t>
-  </si>
-  <si>
-    <t>88,63%</t>
+    <t>85,65%</t>
+  </si>
+  <si>
+    <t>88,69%</t>
   </si>
   <si>
     <t>8,18%</t>
   </si>
   <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
   </si>
   <si>
     <t>13,9%</t>
   </si>
   <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
   </si>
   <si>
     <t>91,82%</t>
   </si>
   <si>
-    <t>90,73%</t>
-  </si>
-  <si>
-    <t>92,7%</t>
+    <t>90,84%</t>
+  </si>
+  <si>
+    <t>92,79%</t>
   </si>
   <si>
     <t>86,1%</t>
   </si>
   <si>
-    <t>87,25%</t>
-  </si>
-  <si>
-    <t>88,9%</t>
-  </si>
-  <si>
-    <t>88,15%</t>
-  </si>
-  <si>
-    <t>89,63%</t>
+    <t>84,7%</t>
+  </si>
+  <si>
+    <t>88,09%</t>
+  </si>
+  <si>
+    <t>89,62%</t>
   </si>
   <si>
     <t>Población con diagnóstico de dolor de espalda en 2023 (Tasa respuesta: 99,91%)</t>
@@ -1133,9 +1133,6 @@
     <t>24,27%</t>
   </si>
   <si>
-    <t>16,86%</t>
-  </si>
-  <si>
     <t>32,77%</t>
   </si>
   <si>
@@ -1161,9 +1158,6 @@
   </si>
   <si>
     <t>67,23%</t>
-  </si>
-  <si>
-    <t>83,14%</t>
   </si>
   <si>
     <t>66,77%</t>
@@ -1902,7 +1896,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F587B2B5-1BB8-4D51-A3F1-3B48A0DDF9FD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AEF2967-7619-401A-A7EF-FDD9A126B161}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2301,10 +2295,10 @@
         <v>44</v>
       </c>
       <c r="K9" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M9" s="7">
         <v>175</v>
@@ -2313,13 +2307,13 @@
         <v>174197</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2334,13 +2328,13 @@
         <v>495341</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>52</v>
       </c>
       <c r="H10" s="7">
         <v>478</v>
@@ -2349,13 +2343,13 @@
         <v>484712</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="K10" s="7" t="s">
-        <v>54</v>
-      </c>
       <c r="L10" s="7" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="M10" s="7">
         <v>971</v>
@@ -2364,13 +2358,13 @@
         <v>980053</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2426,7 +2420,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -2444,7 +2438,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -2459,7 +2453,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -2474,7 +2468,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2489,13 +2483,13 @@
         <v>129699</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="H13" s="7">
         <v>174</v>
@@ -2504,13 +2498,13 @@
         <v>191027</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="M13" s="7">
         <v>296</v>
@@ -2519,13 +2513,13 @@
         <v>320726</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2540,13 +2534,13 @@
         <v>832101</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="H14" s="7">
         <v>734</v>
@@ -2555,13 +2549,13 @@
         <v>777366</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="M14" s="7">
         <v>1508</v>
@@ -2570,13 +2564,13 @@
         <v>1609467</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2632,7 +2626,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2650,7 +2644,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -2665,7 +2659,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -2680,7 +2674,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2695,13 +2689,13 @@
         <v>137087</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="H17" s="7">
         <v>189</v>
@@ -2710,13 +2704,13 @@
         <v>180649</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="M17" s="7">
         <v>323</v>
@@ -2725,13 +2719,13 @@
         <v>317737</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2746,13 +2740,13 @@
         <v>541422</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="H18" s="7">
         <v>507</v>
@@ -2761,13 +2755,13 @@
         <v>503192</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="M18" s="7">
         <v>1014</v>
@@ -2776,13 +2770,13 @@
         <v>1044613</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2838,7 +2832,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -2856,7 +2850,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -2871,7 +2865,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -2886,7 +2880,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2901,13 +2895,13 @@
         <v>160206</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="H21" s="7">
         <v>163</v>
@@ -2916,13 +2910,13 @@
         <v>168311</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="M21" s="7">
         <v>341</v>
@@ -2931,13 +2925,13 @@
         <v>328516</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2952,13 +2946,13 @@
         <v>782016</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="H22" s="7">
         <v>834</v>
@@ -2967,13 +2961,13 @@
         <v>870301</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="M22" s="7">
         <v>1650</v>
@@ -2982,13 +2976,13 @@
         <v>1652318</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3062,7 +3056,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -3077,7 +3071,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -3092,7 +3086,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3104,16 +3098,16 @@
         <v>538</v>
       </c>
       <c r="D25" s="7">
-        <v>530249</v>
+        <v>530248</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H25" s="7">
         <v>638</v>
@@ -3122,13 +3116,13 @@
         <v>650219</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M25" s="7">
         <v>1176</v>
@@ -3137,13 +3131,13 @@
         <v>1180467</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3158,13 +3152,13 @@
         <v>2746295</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H26" s="7">
         <v>2659</v>
@@ -3173,28 +3167,28 @@
         <v>2728979</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M26" s="7">
         <v>5335</v>
       </c>
       <c r="N26" s="7">
-        <v>5475273</v>
+        <v>5475274</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3206,7 +3200,7 @@
         <v>3214</v>
       </c>
       <c r="D27" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>36</v>
@@ -3236,7 +3230,7 @@
         <v>6511</v>
       </c>
       <c r="N27" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>36</v>
@@ -3250,7 +3244,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -3271,7 +3265,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C3A5DAF-D8D3-4648-831B-9BE6379932FB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A40BC6C1-650D-428C-A58A-D81C7A680212}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3288,7 +3282,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3401,7 +3395,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3416,7 +3410,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3431,7 +3425,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3446,13 +3440,13 @@
         <v>9282</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="H5" s="7">
         <v>21</v>
@@ -3461,13 +3455,13 @@
         <v>23196</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="M5" s="7">
         <v>32</v>
@@ -3476,13 +3470,13 @@
         <v>32478</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3497,13 +3491,13 @@
         <v>106483</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="H6" s="7">
         <v>78</v>
@@ -3512,13 +3506,13 @@
         <v>88709</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="M6" s="7">
         <v>189</v>
@@ -3527,13 +3521,13 @@
         <v>195192</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3607,7 +3601,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3622,7 +3616,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -3652,13 +3646,13 @@
         <v>69852</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="H9" s="7">
         <v>112</v>
@@ -3667,13 +3661,13 @@
         <v>121912</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="M9" s="7">
         <v>178</v>
@@ -3682,13 +3676,13 @@
         <v>191764</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3703,13 +3697,13 @@
         <v>517852</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="H10" s="7">
         <v>439</v>
@@ -3718,13 +3712,13 @@
         <v>463233</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="M10" s="7">
         <v>925</v>
@@ -3795,7 +3789,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -3843,7 +3837,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4001,7 +3995,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4019,7 +4013,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -4049,7 +4043,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4085,7 +4079,7 @@
         <v>207</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>43</v>
+        <v>208</v>
       </c>
       <c r="M17" s="7">
         <v>152</v>
@@ -4094,13 +4088,13 @@
         <v>165737</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>210</v>
+        <v>186</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4133,10 +4127,10 @@
         <v>214</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>51</v>
+        <v>215</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M18" s="7">
         <v>1242</v>
@@ -4145,10 +4139,10 @@
         <v>1369060</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>217</v>
+        <v>194</v>
       </c>
       <c r="Q18" s="7" t="s">
         <v>218</v>
@@ -4207,7 +4201,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -4225,7 +4219,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -4240,7 +4234,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -4255,7 +4249,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4300,13 +4294,13 @@
         <v>277181</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4321,13 +4315,13 @@
         <v>872589</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>230</v>
       </c>
       <c r="H22" s="7">
         <v>816</v>
@@ -4336,13 +4330,13 @@
         <v>849870</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>233</v>
       </c>
       <c r="M22" s="7">
         <v>1655</v>
@@ -4351,13 +4345,13 @@
         <v>1722459</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4431,7 +4425,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -4446,7 +4440,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -4461,7 +4455,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4476,13 +4470,13 @@
         <v>308953</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>239</v>
       </c>
       <c r="H25" s="7">
         <v>593</v>
@@ -4491,28 +4485,28 @@
         <v>645546</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>242</v>
       </c>
       <c r="M25" s="7">
         <v>881</v>
       </c>
       <c r="N25" s="7">
-        <v>954500</v>
+        <v>954499</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>244</v>
+        <v>24</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4527,13 +4521,13 @@
         <v>3117826</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="H26" s="7">
         <v>2703</v>
@@ -4542,13 +4536,13 @@
         <v>2909552</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="M26" s="7">
         <v>5624</v>
@@ -4557,13 +4551,13 @@
         <v>6027378</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>254</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4605,7 +4599,7 @@
         <v>6505</v>
       </c>
       <c r="N27" s="7">
-        <v>6981878</v>
+        <v>6981877</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>36</v>
@@ -4619,7 +4613,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -4640,7 +4634,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29B4A6B0-ACC0-4A5D-8858-52C4B78281FB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A85AC67-03ED-444E-AF3E-2C0723C03D6A}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4657,7 +4651,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4770,7 +4764,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4785,7 +4779,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -4800,7 +4794,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4815,13 +4809,13 @@
         <v>11854</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="H5" s="7">
         <v>18</v>
@@ -4830,13 +4824,13 @@
         <v>18612</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="M5" s="7">
         <v>29</v>
@@ -4845,13 +4839,13 @@
         <v>30466</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>265</v>
+        <v>148</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4866,13 +4860,13 @@
         <v>104692</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="H6" s="7">
         <v>97</v>
@@ -4881,13 +4875,13 @@
         <v>94748</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="M6" s="7">
         <v>199</v>
@@ -4896,13 +4890,13 @@
         <v>199440</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>274</v>
+        <v>156</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4976,7 +4970,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -4991,7 +4985,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -5006,7 +5000,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5021,13 +5015,13 @@
         <v>49172</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>42</v>
+        <v>275</v>
       </c>
       <c r="H9" s="7">
         <v>77</v>
@@ -5036,13 +5030,13 @@
         <v>82030</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="M9" s="7">
         <v>125</v>
@@ -5051,13 +5045,13 @@
         <v>131202</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5072,13 +5066,13 @@
         <v>509082</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>52</v>
+        <v>283</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="H10" s="7">
         <v>474</v>
@@ -5087,13 +5081,13 @@
         <v>477449</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="M10" s="7">
         <v>965</v>
@@ -5102,13 +5096,13 @@
         <v>986531</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5164,7 +5158,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -5212,7 +5206,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5227,13 +5221,13 @@
         <v>80772</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="H13" s="7">
         <v>125</v>
@@ -5242,13 +5236,13 @@
         <v>140973</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="M13" s="7">
         <v>201</v>
@@ -5257,13 +5251,13 @@
         <v>221745</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5278,13 +5272,13 @@
         <v>941659</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="H14" s="7">
         <v>852</v>
@@ -5293,13 +5287,13 @@
         <v>901940</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="M14" s="7">
         <v>1727</v>
@@ -5308,13 +5302,13 @@
         <v>1843599</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5370,7 +5364,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5388,7 +5382,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -5403,7 +5397,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -5418,7 +5412,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5433,13 +5427,13 @@
         <v>49575</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="H17" s="7">
         <v>76</v>
@@ -5448,13 +5442,13 @@
         <v>83727</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>318</v>
+        <v>18</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>48</v>
+        <v>315</v>
       </c>
       <c r="M17" s="7">
         <v>123</v>
@@ -5463,13 +5457,13 @@
         <v>133302</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>185</v>
+        <v>316</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>239</v>
+        <v>318</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5484,13 +5478,13 @@
         <v>709977</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>321</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>323</v>
       </c>
       <c r="H18" s="7">
         <v>660</v>
@@ -5499,13 +5493,13 @@
         <v>701284</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>324</v>
+        <v>29</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>58</v>
+        <v>322</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="M18" s="7">
         <v>1309</v>
@@ -5514,10 +5508,10 @@
         <v>1411261</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>195</v>
+        <v>324</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>247</v>
+        <v>325</v>
       </c>
       <c r="Q18" s="7" t="s">
         <v>326</v>
@@ -5576,7 +5570,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -5594,7 +5588,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5624,7 +5618,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5669,13 +5663,13 @@
         <v>253514</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>244</v>
+        <v>333</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5690,13 +5684,13 @@
         <v>851451</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H22" s="7">
         <v>812</v>
@@ -5705,13 +5699,13 @@
         <v>876381</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="M22" s="7">
         <v>1663</v>
@@ -5720,13 +5714,13 @@
         <v>1727832</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>254</v>
+        <v>342</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5800,7 +5794,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -5815,7 +5809,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -5830,7 +5824,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5845,13 +5839,13 @@
         <v>277488</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="H25" s="7">
         <v>443</v>
@@ -5860,13 +5854,13 @@
         <v>492741</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>347</v>
+        <v>333</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>47</v>
+        <v>349</v>
       </c>
       <c r="M25" s="7">
         <v>706</v>
@@ -5875,13 +5869,13 @@
         <v>770229</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>348</v>
+        <v>61</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5896,13 +5890,13 @@
         <v>3116862</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H26" s="7">
         <v>2895</v>
@@ -5911,13 +5905,13 @@
         <v>3051801</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>56</v>
+        <v>356</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>355</v>
+        <v>342</v>
       </c>
       <c r="M26" s="7">
         <v>5863</v>
@@ -5926,7 +5920,7 @@
         <v>6168663</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>356</v>
+        <v>71</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>357</v>
@@ -5988,7 +5982,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -6009,7 +6003,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F5A7271-B1BF-4C78-BE81-71700DDD3BE2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E88D8FF-C1EB-44A4-9367-F8F990E25E43}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6187,10 +6181,10 @@
         <v>363</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>364</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>365</v>
       </c>
       <c r="H5" s="7">
         <v>87</v>
@@ -6199,13 +6193,13 @@
         <v>43440</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>366</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>367</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>368</v>
       </c>
       <c r="M5" s="7">
         <v>121</v>
@@ -6214,13 +6208,13 @@
         <v>68194</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>370</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6235,13 +6229,13 @@
         <v>77228</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="F6" s="7" t="s">
-        <v>373</v>
-      </c>
       <c r="G6" s="7" t="s">
-        <v>374</v>
+        <v>248</v>
       </c>
       <c r="H6" s="7">
         <v>156</v>
@@ -6250,13 +6244,13 @@
         <v>87293</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>375</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>377</v>
       </c>
       <c r="M6" s="7">
         <v>240</v>
@@ -6265,13 +6259,13 @@
         <v>164521</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>378</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6345,7 +6339,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="H8" s="7">
         <v>3</v>
@@ -6354,13 +6348,13 @@
         <v>27412</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>382</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>384</v>
       </c>
       <c r="M8" s="7">
         <v>3</v>
@@ -6369,13 +6363,13 @@
         <v>27412</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6390,13 +6384,13 @@
         <v>108357</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>387</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>389</v>
       </c>
       <c r="H9" s="7">
         <v>350</v>
@@ -6405,13 +6399,13 @@
         <v>182241</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>390</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>392</v>
       </c>
       <c r="M9" s="7">
         <v>489</v>
@@ -6420,13 +6414,13 @@
         <v>290598</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>393</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6441,13 +6435,13 @@
         <v>441466</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>396</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>398</v>
       </c>
       <c r="H10" s="7">
         <v>645</v>
@@ -6456,13 +6450,13 @@
         <v>410314</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>399</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>401</v>
       </c>
       <c r="M10" s="7">
         <v>1118</v>
@@ -6471,13 +6465,13 @@
         <v>851780</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>402</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>403</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6533,7 +6527,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -6560,13 +6554,13 @@
         <v>1323</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="M12" s="7">
         <v>2</v>
@@ -6575,7 +6569,7 @@
         <v>1323</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>11</v>
@@ -6596,13 +6590,13 @@
         <v>170731</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>407</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>408</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>409</v>
       </c>
       <c r="H13" s="7">
         <v>537</v>
@@ -6611,13 +6605,13 @@
         <v>340285</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>410</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>412</v>
       </c>
       <c r="M13" s="7">
         <v>733</v>
@@ -6626,13 +6620,13 @@
         <v>511015</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>413</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>414</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6647,13 +6641,13 @@
         <v>865208</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>416</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>417</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>418</v>
       </c>
       <c r="H14" s="7">
         <v>977</v>
@@ -6662,13 +6656,13 @@
         <v>717785</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>419</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>421</v>
       </c>
       <c r="M14" s="7">
         <v>1743</v>
@@ -6677,13 +6671,13 @@
         <v>1582994</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6739,7 +6733,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6757,7 +6751,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -6772,7 +6766,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -6787,7 +6781,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6802,13 +6796,13 @@
         <v>147164</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="H17" s="7">
         <v>368</v>
@@ -6817,13 +6811,13 @@
         <v>362358</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>426</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>428</v>
       </c>
       <c r="M17" s="7">
         <v>522</v>
@@ -6832,13 +6826,13 @@
         <v>509522</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>429</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>430</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6853,10 +6847,10 @@
         <v>579760</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>30</v>
@@ -6868,13 +6862,13 @@
         <v>511854</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>434</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>435</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>436</v>
       </c>
       <c r="M18" s="7">
         <v>1198</v>
@@ -6883,13 +6877,13 @@
         <v>1091613</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>437</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>438</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6945,7 +6939,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -6963,7 +6957,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -6972,13 +6966,13 @@
         <v>2762</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -6987,13 +6981,13 @@
         <v>2762</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7008,13 +7002,13 @@
         <v>187412</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>443</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>444</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>445</v>
       </c>
       <c r="H21" s="7">
         <v>477</v>
@@ -7023,13 +7017,13 @@
         <v>313239</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>446</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>447</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>448</v>
       </c>
       <c r="M21" s="7">
         <v>692</v>
@@ -7038,13 +7032,13 @@
         <v>500651</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>449</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>450</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7059,13 +7053,13 @@
         <v>777154</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>452</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>453</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>454</v>
       </c>
       <c r="H22" s="7">
         <v>1083</v>
@@ -7074,13 +7068,13 @@
         <v>833705</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>455</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>456</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>457</v>
       </c>
       <c r="M22" s="7">
         <v>1873</v>
@@ -7089,13 +7083,13 @@
         <v>1610859</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>458</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>459</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7169,7 +7163,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H24" s="7">
         <v>6</v>
@@ -7181,10 +7175,10 @@
         <v>15</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="M24" s="7">
         <v>6</v>
@@ -7193,13 +7187,13 @@
         <v>31497</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>463</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>464</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7214,13 +7208,13 @@
         <v>638416</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>466</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>467</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>468</v>
       </c>
       <c r="H25" s="7">
         <v>1819</v>
@@ -7229,13 +7223,13 @@
         <v>1241563</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>469</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>470</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>471</v>
       </c>
       <c r="M25" s="7">
         <v>2557</v>
@@ -7244,13 +7238,13 @@
         <v>1879979</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>472</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>473</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7265,13 +7259,13 @@
         <v>2740818</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>475</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>476</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>477</v>
       </c>
       <c r="H26" s="7">
         <v>3539</v>
@@ -7280,13 +7274,13 @@
         <v>2560950</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>478</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>479</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>480</v>
       </c>
       <c r="M26" s="7">
         <v>6172</v>
@@ -7295,13 +7289,13 @@
         <v>5301767</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>481</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>482</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7357,7 +7351,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1413-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1413-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BE6E9941-282B-4CDB-A6B9-4AD60D8864C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DFF9A917-B18D-4427-8D4A-4C20019C6FAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9BA53AEB-26A4-45FC-A87C-64F164DB2D25}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{43962AEE-EE32-4B55-8E05-F169A9F00C23}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="368">
   <si>
     <t>Población con diagnóstico de dolor de espalda en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -68,129 +68,72 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>24,01%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>82,71%</t>
-  </si>
-  <si>
-    <t>74,88%</t>
-  </si>
-  <si>
-    <t>89,19%</t>
-  </si>
-  <si>
-    <t>82,84%</t>
-  </si>
-  <si>
-    <t>75,99%</t>
-  </si>
-  <si>
-    <t>88,82%</t>
-  </si>
-  <si>
-    <t>82,78%</t>
-  </si>
-  <si>
-    <t>77,27%</t>
-  </si>
-  <si>
-    <t>87,19%</t>
+    <t>85,12%</t>
+  </si>
+  <si>
+    <t>82,1%</t>
+  </si>
+  <si>
+    <t>87,9%</t>
+  </si>
+  <si>
+    <t>83,99%</t>
+  </si>
+  <si>
+    <t>81,16%</t>
+  </si>
+  <si>
+    <t>86,5%</t>
+  </si>
+  <si>
+    <t>84,56%</t>
+  </si>
+  <si>
+    <t>82,55%</t>
+  </si>
+  <si>
+    <t>86,48%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>85,6%</t>
-  </si>
-  <si>
-    <t>82,2%</t>
-  </si>
-  <si>
-    <t>88,28%</t>
-  </si>
-  <si>
-    <t>84,21%</t>
-  </si>
-  <si>
-    <t>81,09%</t>
-  </si>
-  <si>
-    <t>86,93%</t>
-  </si>
-  <si>
-    <t>84,91%</t>
-  </si>
-  <si>
-    <t>82,97%</t>
-  </si>
-  <si>
-    <t>86,98%</t>
-  </si>
-  <si>
     <t>10-50.000 hab</t>
   </si>
   <si>
@@ -248,7 +191,7 @@
     <t>85,04%</t>
   </si>
   <si>
-    <t>&gt;50.000hab</t>
+    <t>&gt;50.000 hab</t>
   </si>
   <si>
     <t>20,2%</t>
@@ -422,112 +365,52 @@
     <t>Población con diagnóstico de dolor de espalda en 2012 (Tasa respuesta: 99,97%)</t>
   </si>
   <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>29,63%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>91,98%</t>
-  </si>
-  <si>
-    <t>86,59%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>79,27%</t>
-  </si>
-  <si>
-    <t>70,37%</t>
-  </si>
-  <si>
-    <t>86,16%</t>
-  </si>
-  <si>
-    <t>85,73%</t>
-  </si>
-  <si>
-    <t>80,36%</t>
-  </si>
-  <si>
-    <t>90,27%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>88,11%</t>
-  </si>
-  <si>
-    <t>85,05%</t>
-  </si>
-  <si>
-    <t>90,56%</t>
-  </si>
-  <si>
-    <t>79,17%</t>
-  </si>
-  <si>
-    <t>75,76%</t>
-  </si>
-  <si>
-    <t>82,44%</t>
-  </si>
-  <si>
-    <t>83,65%</t>
-  </si>
-  <si>
-    <t>81,19%</t>
-  </si>
-  <si>
-    <t>85,78%</t>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>88,75%</t>
+  </si>
+  <si>
+    <t>85,97%</t>
+  </si>
+  <si>
+    <t>91,25%</t>
+  </si>
+  <si>
+    <t>79,18%</t>
+  </si>
+  <si>
+    <t>75,84%</t>
+  </si>
+  <si>
+    <t>82,34%</t>
+  </si>
+  <si>
+    <t>81,96%</t>
+  </si>
+  <si>
+    <t>85,92%</t>
   </si>
   <si>
     <t>10,44%</t>
@@ -749,112 +632,52 @@
     <t>Población con diagnóstico de dolor de espalda en 2016 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>89,83%</t>
-  </si>
-  <si>
-    <t>83,18%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>83,58%</t>
-  </si>
-  <si>
-    <t>75,52%</t>
-  </si>
-  <si>
-    <t>90,42%</t>
-  </si>
-  <si>
-    <t>86,75%</t>
-  </si>
-  <si>
-    <t>81,33%</t>
-  </si>
-  <si>
-    <t>91,0%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>91,19%</t>
-  </si>
-  <si>
-    <t>88,31%</t>
-  </si>
-  <si>
-    <t>93,34%</t>
-  </si>
-  <si>
-    <t>85,34%</t>
-  </si>
-  <si>
-    <t>82,16%</t>
-  </si>
-  <si>
-    <t>88,07%</t>
-  </si>
-  <si>
-    <t>88,26%</t>
-  </si>
-  <si>
-    <t>86,11%</t>
-  </si>
-  <si>
-    <t>90,19%</t>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>90,96%</t>
+  </si>
+  <si>
+    <t>88,8%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>82,37%</t>
+  </si>
+  <si>
+    <t>87,96%</t>
+  </si>
+  <si>
+    <t>88,0%</t>
+  </si>
+  <si>
+    <t>86,12%</t>
+  </si>
+  <si>
+    <t>89,67%</t>
   </si>
   <si>
     <t>7,9%</t>
@@ -866,9 +689,6 @@
     <t>9,79%</t>
   </si>
   <si>
-    <t>13,52%</t>
-  </si>
-  <si>
     <t>11,3%</t>
   </si>
   <si>
@@ -893,9 +713,6 @@
     <t>93,76%</t>
   </si>
   <si>
-    <t>86,48%</t>
-  </si>
-  <si>
     <t>84,18%</t>
   </si>
   <si>
@@ -1070,328 +887,262 @@
     <t>Población con diagnóstico de dolor de espalda en 2023 (Tasa respuesta: 99,84%)</t>
   </si>
   <si>
-    <t>24,27%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>32,73%</t>
-  </si>
-  <si>
-    <t>33,23%</t>
-  </si>
-  <si>
-    <t>27,17%</t>
-  </si>
-  <si>
-    <t>40,27%</t>
-  </si>
-  <si>
-    <t>29,3%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>34,61%</t>
-  </si>
-  <si>
-    <t>75,73%</t>
-  </si>
-  <si>
-    <t>67,27%</t>
-  </si>
-  <si>
-    <t>83,24%</t>
-  </si>
-  <si>
-    <t>66,77%</t>
-  </si>
-  <si>
-    <t>59,73%</t>
-  </si>
-  <si>
-    <t>72,83%</t>
-  </si>
-  <si>
-    <t>70,7%</t>
-  </si>
-  <si>
-    <t>65,39%</t>
-  </si>
-  <si>
-    <t>75,18%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>30,76%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>33,98%</t>
-  </si>
-  <si>
-    <t>25,44%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>27,65%</t>
-  </si>
-  <si>
-    <t>80,29%</t>
-  </si>
-  <si>
-    <t>76,7%</t>
-  </si>
-  <si>
-    <t>83,08%</t>
-  </si>
-  <si>
-    <t>69,24%</t>
-  </si>
-  <si>
-    <t>66,02%</t>
-  </si>
-  <si>
-    <t>71,99%</t>
-  </si>
-  <si>
-    <t>74,56%</t>
-  </si>
-  <si>
-    <t>72,35%</t>
-  </si>
-  <si>
-    <t>76,82%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>32,16%</t>
-  </si>
-  <si>
-    <t>29,46%</t>
-  </si>
-  <si>
-    <t>34,67%</t>
-  </si>
-  <si>
-    <t>24,4%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>26,25%</t>
-  </si>
-  <si>
-    <t>83,52%</t>
-  </si>
-  <si>
-    <t>80,98%</t>
-  </si>
-  <si>
-    <t>86,35%</t>
-  </si>
-  <si>
-    <t>67,84%</t>
-  </si>
-  <si>
-    <t>65,33%</t>
-  </si>
-  <si>
-    <t>70,54%</t>
-  </si>
-  <si>
-    <t>75,6%</t>
-  </si>
-  <si>
-    <t>73,75%</t>
-  </si>
-  <si>
-    <t>77,93%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>41,45%</t>
-  </si>
-  <si>
-    <t>31,98%</t>
-  </si>
-  <si>
-    <t>60,71%</t>
-  </si>
-  <si>
-    <t>31,82%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>49,72%</t>
-  </si>
-  <si>
-    <t>79,76%</t>
-  </si>
-  <si>
-    <t>76,38%</t>
-  </si>
-  <si>
-    <t>82,73%</t>
-  </si>
-  <si>
-    <t>58,55%</t>
-  </si>
-  <si>
-    <t>39,29%</t>
-  </si>
-  <si>
-    <t>68,02%</t>
-  </si>
-  <si>
-    <t>68,18%</t>
-  </si>
-  <si>
-    <t>50,28%</t>
-  </si>
-  <si>
-    <t>73,94%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>22,03%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>24,85%</t>
-  </si>
-  <si>
-    <t>29,87%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>80,57%</t>
-  </si>
-  <si>
-    <t>77,97%</t>
-  </si>
-  <si>
-    <t>82,83%</t>
-  </si>
-  <si>
-    <t>72,69%</t>
-  </si>
-  <si>
-    <t>70,13%</t>
-  </si>
-  <si>
-    <t>75,15%</t>
-  </si>
-  <si>
-    <t>76,29%</t>
-  </si>
-  <si>
-    <t>74,28%</t>
-  </si>
-  <si>
-    <t>77,99%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>32,65%</t>
-  </si>
-  <si>
-    <t>30,16%</t>
-  </si>
-  <si>
-    <t>40,48%</t>
-  </si>
-  <si>
-    <t>26,18%</t>
-  </si>
-  <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>30,58%</t>
-  </si>
-  <si>
-    <t>81,11%</t>
-  </si>
-  <si>
-    <t>79,66%</t>
-  </si>
-  <si>
-    <t>82,6%</t>
-  </si>
-  <si>
-    <t>67,35%</t>
-  </si>
-  <si>
-    <t>59,52%</t>
-  </si>
-  <si>
-    <t>69,84%</t>
-  </si>
-  <si>
-    <t>73,82%</t>
-  </si>
-  <si>
-    <t>69,42%</t>
-  </si>
-  <si>
-    <t>75,3%</t>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>31,09%</t>
+  </si>
+  <si>
+    <t>28,27%</t>
+  </si>
+  <si>
+    <t>33,84%</t>
+  </si>
+  <si>
+    <t>25,66%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>80,11%</t>
+  </si>
+  <si>
+    <t>77,09%</t>
+  </si>
+  <si>
+    <t>83,21%</t>
+  </si>
+  <si>
+    <t>68,91%</t>
+  </si>
+  <si>
+    <t>66,16%</t>
+  </si>
+  <si>
+    <t>71,73%</t>
+  </si>
+  <si>
+    <t>74,34%</t>
+  </si>
+  <si>
+    <t>72,36%</t>
+  </si>
+  <si>
+    <t>76,21%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>32,28%</t>
+  </si>
+  <si>
+    <t>29,53%</t>
+  </si>
+  <si>
+    <t>34,77%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>25,19%</t>
+  </si>
+  <si>
+    <t>86,65%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
+  </si>
+  <si>
+    <t>67,72%</t>
+  </si>
+  <si>
+    <t>65,23%</t>
+  </si>
+  <si>
+    <t>70,47%</t>
+  </si>
+  <si>
+    <t>78,21%</t>
+  </si>
+  <si>
+    <t>74,81%</t>
+  </si>
+  <si>
+    <t>85,48%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>23,39%</t>
+  </si>
+  <si>
+    <t>46,53%</t>
+  </si>
+  <si>
+    <t>30,38%</t>
+  </si>
+  <si>
+    <t>71,2%</t>
+  </si>
+  <si>
+    <t>35,1%</t>
+  </si>
+  <si>
+    <t>25,06%</t>
+  </si>
+  <si>
+    <t>60,94%</t>
+  </si>
+  <si>
+    <t>80,06%</t>
+  </si>
+  <si>
+    <t>76,61%</t>
+  </si>
+  <si>
+    <t>82,94%</t>
+  </si>
+  <si>
+    <t>53,47%</t>
+  </si>
+  <si>
+    <t>28,8%</t>
+  </si>
+  <si>
+    <t>69,62%</t>
+  </si>
+  <si>
+    <t>64,9%</t>
+  </si>
+  <si>
+    <t>39,06%</t>
+  </si>
+  <si>
+    <t>74,94%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>28,54%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>80,91%</t>
+  </si>
+  <si>
+    <t>78,25%</t>
+  </si>
+  <si>
+    <t>83,23%</t>
+  </si>
+  <si>
+    <t>74,3%</t>
+  </si>
+  <si>
+    <t>71,46%</t>
+  </si>
+  <si>
+    <t>79,49%</t>
+  </si>
+  <si>
+    <t>77,34%</t>
+  </si>
+  <si>
+    <t>75,19%</t>
+  </si>
+  <si>
+    <t>79,97%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>33,73%</t>
+  </si>
+  <si>
+    <t>29,19%</t>
+  </si>
+  <si>
+    <t>47,05%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>82,57%</t>
+  </si>
+  <si>
+    <t>80,71%</t>
+  </si>
+  <si>
+    <t>86,64%</t>
+  </si>
+  <si>
+    <t>66,27%</t>
+  </si>
+  <si>
+    <t>52,95%</t>
+  </si>
+  <si>
+    <t>70,81%</t>
+  </si>
+  <si>
+    <t>74,19%</t>
+  </si>
+  <si>
+    <t>77,01%</t>
   </si>
 </sst>
 </file>
@@ -1803,8 +1554,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9FD957B-224E-47B3-9645-B32425A15431}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FACF30F7-1DBE-4260-8FAA-7FC30450B7F0}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1921,10 +1672,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>19</v>
+        <v>104</v>
       </c>
       <c r="D4" s="7">
-        <v>19943</v>
+        <v>103256</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1936,10 +1687,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>22</v>
+        <v>112</v>
       </c>
       <c r="I4" s="7">
-        <v>19348</v>
+        <v>110232</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1951,10 +1702,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>41</v>
+        <v>216</v>
       </c>
       <c r="N4" s="7">
-        <v>39290</v>
+        <v>213488</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1972,10 +1723,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>86</v>
+        <v>579</v>
       </c>
       <c r="D5" s="7">
-        <v>95415</v>
+        <v>590756</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1987,10 +1738,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>106</v>
+        <v>584</v>
       </c>
       <c r="I5" s="7">
-        <v>93407</v>
+        <v>578119</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -2002,10 +1753,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>192</v>
+        <v>1163</v>
       </c>
       <c r="N5" s="7">
-        <v>188823</v>
+        <v>1168875</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -2023,10 +1774,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>105</v>
+        <v>683</v>
       </c>
       <c r="D6" s="7">
-        <v>115358</v>
+        <v>694012</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -2038,10 +1789,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>128</v>
+        <v>696</v>
       </c>
       <c r="I6" s="7">
-        <v>112755</v>
+        <v>688351</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2053,10 +1804,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>233</v>
+        <v>1379</v>
       </c>
       <c r="N6" s="7">
-        <v>228113</v>
+        <v>1382363</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2076,10 +1827,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>85</v>
+        <v>122</v>
       </c>
       <c r="D7" s="7">
-        <v>83313</v>
+        <v>129699</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -2091,10 +1842,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>90</v>
+        <v>174</v>
       </c>
       <c r="I7" s="7">
-        <v>90884</v>
+        <v>191027</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -2106,10 +1857,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>175</v>
+        <v>296</v>
       </c>
       <c r="N7" s="7">
-        <v>174197</v>
+        <v>320726</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -2127,10 +1878,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>493</v>
+        <v>774</v>
       </c>
       <c r="D8" s="7">
-        <v>495341</v>
+        <v>832101</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -2142,10 +1893,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>478</v>
+        <v>734</v>
       </c>
       <c r="I8" s="7">
-        <v>484712</v>
+        <v>777366</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -2157,10 +1908,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>971</v>
+        <v>1508</v>
       </c>
       <c r="N8" s="7">
-        <v>980053</v>
+        <v>1609467</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -2178,10 +1929,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>578</v>
+        <v>896</v>
       </c>
       <c r="D9" s="7">
-        <v>578654</v>
+        <v>961800</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2193,10 +1944,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>568</v>
+        <v>908</v>
       </c>
       <c r="I9" s="7">
-        <v>575596</v>
+        <v>968393</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2208,10 +1959,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1146</v>
+        <v>1804</v>
       </c>
       <c r="N9" s="7">
-        <v>1154250</v>
+        <v>1930193</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2231,10 +1982,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="D10" s="7">
-        <v>129699</v>
+        <v>137087</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -2246,10 +1997,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="I10" s="7">
-        <v>191027</v>
+        <v>180649</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -2261,10 +2012,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>296</v>
+        <v>323</v>
       </c>
       <c r="N10" s="7">
-        <v>320726</v>
+        <v>317737</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -2282,10 +2033,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>774</v>
+        <v>507</v>
       </c>
       <c r="D11" s="7">
-        <v>832101</v>
+        <v>541422</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -2297,10 +2048,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>734</v>
+        <v>507</v>
       </c>
       <c r="I11" s="7">
-        <v>777366</v>
+        <v>503192</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -2312,10 +2063,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>1508</v>
+        <v>1014</v>
       </c>
       <c r="N11" s="7">
-        <v>1609467</v>
+        <v>1044613</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -2333,10 +2084,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>896</v>
+        <v>641</v>
       </c>
       <c r="D12" s="7">
-        <v>961800</v>
+        <v>678509</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2348,10 +2099,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>908</v>
+        <v>696</v>
       </c>
       <c r="I12" s="7">
-        <v>968393</v>
+        <v>683841</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2363,10 +2114,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1804</v>
+        <v>1337</v>
       </c>
       <c r="N12" s="7">
-        <v>1930193</v>
+        <v>1362350</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2386,10 +2137,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>134</v>
+        <v>178</v>
       </c>
       <c r="D13" s="7">
-        <v>137087</v>
+        <v>160206</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -2401,10 +2152,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>189</v>
+        <v>163</v>
       </c>
       <c r="I13" s="7">
-        <v>180649</v>
+        <v>168311</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -2416,10 +2167,10 @@
         <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>323</v>
+        <v>341</v>
       </c>
       <c r="N13" s="7">
-        <v>317737</v>
+        <v>328516</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -2437,10 +2188,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>507</v>
+        <v>816</v>
       </c>
       <c r="D14" s="7">
-        <v>541422</v>
+        <v>782016</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -2452,10 +2203,10 @@
         <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>507</v>
+        <v>834</v>
       </c>
       <c r="I14" s="7">
-        <v>503192</v>
+        <v>870301</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -2467,10 +2218,10 @@
         <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>1014</v>
+        <v>1650</v>
       </c>
       <c r="N14" s="7">
-        <v>1044613</v>
+        <v>1652318</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -2488,10 +2239,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>641</v>
+        <v>994</v>
       </c>
       <c r="D15" s="7">
-        <v>678509</v>
+        <v>942222</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2503,10 +2254,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>696</v>
+        <v>997</v>
       </c>
       <c r="I15" s="7">
-        <v>683841</v>
+        <v>1038612</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2518,10 +2269,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1337</v>
+        <v>1991</v>
       </c>
       <c r="N15" s="7">
-        <v>1362350</v>
+        <v>1980834</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2535,55 +2286,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>178</v>
+        <v>538</v>
       </c>
       <c r="D16" s="7">
-        <v>160206</v>
+        <v>530248</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>638</v>
+      </c>
+      <c r="I16" s="7">
+        <v>650219</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="H16" s="7">
-        <v>163</v>
-      </c>
-      <c r="I16" s="7">
-        <v>168311</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>1176</v>
+      </c>
+      <c r="N16" s="7">
+        <v>1180467</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="M16" s="7">
-        <v>341</v>
-      </c>
-      <c r="N16" s="7">
-        <v>328516</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2592,49 +2343,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>816</v>
+        <v>2676</v>
       </c>
       <c r="D17" s="7">
-        <v>782016</v>
+        <v>2746295</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>2659</v>
+      </c>
+      <c r="I17" s="7">
+        <v>2728978</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="H17" s="7">
-        <v>834</v>
-      </c>
-      <c r="I17" s="7">
-        <v>870301</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>5335</v>
+      </c>
+      <c r="N17" s="7">
+        <v>5475274</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="M17" s="7">
-        <v>1650</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1652318</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2643,10 +2394,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>994</v>
+        <v>3214</v>
       </c>
       <c r="D18" s="7">
-        <v>942222</v>
+        <v>3276543</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -2658,10 +2409,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>997</v>
+        <v>3297</v>
       </c>
       <c r="I18" s="7">
-        <v>1038612</v>
+        <v>3379197</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -2673,10 +2424,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1991</v>
+        <v>6511</v>
       </c>
       <c r="N18" s="7">
-        <v>1980834</v>
+        <v>6655741</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -2689,171 +2440,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>538</v>
-      </c>
-      <c r="D19" s="7">
-        <v>530249</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="H19" s="7">
-        <v>638</v>
-      </c>
-      <c r="I19" s="7">
-        <v>650219</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="M19" s="7">
-        <v>1176</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1180467</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>2676</v>
-      </c>
-      <c r="D20" s="7">
-        <v>2746295</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="H20" s="7">
-        <v>2659</v>
-      </c>
-      <c r="I20" s="7">
-        <v>2728979</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="M20" s="7">
-        <v>5335</v>
-      </c>
-      <c r="N20" s="7">
-        <v>5475273</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3214</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3276544</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3297</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3379198</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6511</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6655740</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2866,8 +2461,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77B72965-FA45-4B59-995D-08922CF5BBB6}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7BDB818-3390-42D5-B59A-40B83E344251}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2883,7 +2478,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2984,49 +2579,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>11</v>
+        <v>77</v>
       </c>
       <c r="D4" s="7">
-        <v>9282</v>
+        <v>79134</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="H4" s="7">
-        <v>21</v>
+        <v>133</v>
       </c>
       <c r="I4" s="7">
-        <v>23196</v>
+        <v>145108</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="M4" s="7">
-        <v>32</v>
+        <v>210</v>
       </c>
       <c r="N4" s="7">
-        <v>32478</v>
+        <v>224241</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>133</v>
+        <v>14</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3035,49 +2630,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>111</v>
+        <v>597</v>
       </c>
       <c r="D5" s="7">
-        <v>106483</v>
+        <v>624335</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>136</v>
+        <v>116</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="H5" s="7">
-        <v>78</v>
+        <v>517</v>
       </c>
       <c r="I5" s="7">
-        <v>88709</v>
+        <v>551942</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="M5" s="7">
-        <v>189</v>
+        <v>1114</v>
       </c>
       <c r="N5" s="7">
-        <v>195192</v>
+        <v>1176278</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>142</v>
+        <v>24</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3086,10 +2681,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>122</v>
+        <v>674</v>
       </c>
       <c r="D6" s="7">
-        <v>115765</v>
+        <v>703469</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3101,10 +2696,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>99</v>
+        <v>650</v>
       </c>
       <c r="I6" s="7">
-        <v>111905</v>
+        <v>697050</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3116,10 +2711,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>221</v>
+        <v>1324</v>
       </c>
       <c r="N6" s="7">
-        <v>227670</v>
+        <v>1400519</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3139,49 +2734,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>66</v>
+        <v>97</v>
       </c>
       <c r="D7" s="7">
-        <v>69852</v>
+        <v>106298</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="H7" s="7">
-        <v>112</v>
+        <v>164</v>
       </c>
       <c r="I7" s="7">
-        <v>121912</v>
+        <v>181041</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="M7" s="7">
-        <v>178</v>
+        <v>261</v>
       </c>
       <c r="N7" s="7">
-        <v>191764</v>
+        <v>287340</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3190,49 +2785,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>486</v>
+        <v>839</v>
       </c>
       <c r="D8" s="7">
-        <v>517852</v>
+        <v>911649</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>155</v>
+        <v>134</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="H8" s="7">
-        <v>439</v>
+        <v>774</v>
       </c>
       <c r="I8" s="7">
-        <v>463233</v>
+        <v>847932</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>159</v>
+        <v>138</v>
       </c>
       <c r="M8" s="7">
-        <v>925</v>
+        <v>1613</v>
       </c>
       <c r="N8" s="7">
-        <v>981085</v>
+        <v>1759581</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>160</v>
+        <v>139</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>162</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3241,10 +2836,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>552</v>
+        <v>936</v>
       </c>
       <c r="D9" s="7">
-        <v>587704</v>
+        <v>1017947</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3256,10 +2851,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>551</v>
+        <v>938</v>
       </c>
       <c r="I9" s="7">
-        <v>585145</v>
+        <v>1028973</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3271,10 +2866,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1103</v>
+        <v>1874</v>
       </c>
       <c r="N9" s="7">
-        <v>1172849</v>
+        <v>2046921</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3294,49 +2889,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>97</v>
+        <v>43</v>
       </c>
       <c r="D10" s="7">
-        <v>106298</v>
+        <v>48371</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>163</v>
+        <v>142</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>165</v>
+        <v>144</v>
       </c>
       <c r="H10" s="7">
-        <v>164</v>
+        <v>109</v>
       </c>
       <c r="I10" s="7">
-        <v>181041</v>
+        <v>117366</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>166</v>
+        <v>145</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>167</v>
+        <v>146</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
       <c r="M10" s="7">
-        <v>261</v>
+        <v>152</v>
       </c>
       <c r="N10" s="7">
-        <v>287339</v>
+        <v>165737</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>170</v>
+        <v>149</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>171</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3345,49 +2940,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>839</v>
+        <v>646</v>
       </c>
       <c r="D11" s="7">
-        <v>911649</v>
+        <v>709252</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>172</v>
+        <v>151</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>173</v>
+        <v>152</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>174</v>
+        <v>153</v>
       </c>
       <c r="H11" s="7">
-        <v>774</v>
+        <v>596</v>
       </c>
       <c r="I11" s="7">
-        <v>847932</v>
+        <v>659808</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>175</v>
+        <v>154</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>176</v>
+        <v>155</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="M11" s="7">
-        <v>1613</v>
+        <v>1242</v>
       </c>
       <c r="N11" s="7">
-        <v>1759581</v>
+        <v>1369060</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>179</v>
+        <v>158</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>180</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3396,10 +2991,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>936</v>
+        <v>689</v>
       </c>
       <c r="D12" s="7">
-        <v>1017947</v>
+        <v>757623</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3411,10 +3006,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>938</v>
+        <v>705</v>
       </c>
       <c r="I12" s="7">
-        <v>1028973</v>
+        <v>777174</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3426,10 +3021,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1874</v>
+        <v>1394</v>
       </c>
       <c r="N12" s="7">
-        <v>2046920</v>
+        <v>1534797</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3449,49 +3044,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="D13" s="7">
-        <v>48371</v>
+        <v>75150</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>182</v>
+        <v>161</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>183</v>
+        <v>162</v>
       </c>
       <c r="H13" s="7">
-        <v>109</v>
+        <v>187</v>
       </c>
       <c r="I13" s="7">
-        <v>117366</v>
+        <v>202031</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>184</v>
+        <v>163</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>185</v>
+        <v>164</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
       <c r="M13" s="7">
-        <v>152</v>
+        <v>258</v>
       </c>
       <c r="N13" s="7">
-        <v>165737</v>
+        <v>277181</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>187</v>
+        <v>166</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>189</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3500,49 +3095,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>646</v>
+        <v>839</v>
       </c>
       <c r="D14" s="7">
-        <v>709252</v>
+        <v>872589</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>190</v>
+        <v>169</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>191</v>
+        <v>170</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
       <c r="H14" s="7">
-        <v>596</v>
+        <v>816</v>
       </c>
       <c r="I14" s="7">
-        <v>659808</v>
+        <v>849870</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>193</v>
+        <v>172</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>194</v>
+        <v>173</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>195</v>
+        <v>174</v>
       </c>
       <c r="M14" s="7">
-        <v>1242</v>
+        <v>1655</v>
       </c>
       <c r="N14" s="7">
-        <v>1369060</v>
+        <v>1722459</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>197</v>
+        <v>176</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3551,10 +3146,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>689</v>
+        <v>910</v>
       </c>
       <c r="D15" s="7">
-        <v>757623</v>
+        <v>947739</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3566,10 +3161,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>705</v>
+        <v>1003</v>
       </c>
       <c r="I15" s="7">
-        <v>777174</v>
+        <v>1051901</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3581,10 +3176,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1394</v>
+        <v>1913</v>
       </c>
       <c r="N15" s="7">
-        <v>1534797</v>
+        <v>1999640</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -3598,55 +3193,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>71</v>
+        <v>288</v>
       </c>
       <c r="D16" s="7">
-        <v>75150</v>
+        <v>308953</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>199</v>
+        <v>178</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>200</v>
+        <v>179</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>201</v>
+        <v>180</v>
       </c>
       <c r="H16" s="7">
-        <v>187</v>
+        <v>593</v>
       </c>
       <c r="I16" s="7">
-        <v>202031</v>
+        <v>645546</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>203</v>
+        <v>182</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>204</v>
+        <v>183</v>
       </c>
       <c r="M16" s="7">
-        <v>258</v>
+        <v>881</v>
       </c>
       <c r="N16" s="7">
-        <v>277181</v>
+        <v>954499</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>205</v>
+        <v>184</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>206</v>
+        <v>185</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3655,49 +3250,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>839</v>
+        <v>2921</v>
       </c>
       <c r="D17" s="7">
-        <v>872589</v>
+        <v>3117826</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>208</v>
+        <v>187</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>209</v>
+        <v>188</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>210</v>
+        <v>189</v>
       </c>
       <c r="H17" s="7">
-        <v>816</v>
+        <v>2703</v>
       </c>
       <c r="I17" s="7">
-        <v>849870</v>
+        <v>2909552</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>212</v>
+        <v>191</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>213</v>
+        <v>192</v>
       </c>
       <c r="M17" s="7">
-        <v>1655</v>
+        <v>5624</v>
       </c>
       <c r="N17" s="7">
-        <v>1722459</v>
+        <v>6027378</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>214</v>
+        <v>193</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>215</v>
+        <v>194</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>216</v>
+        <v>195</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3706,10 +3301,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>910</v>
+        <v>3209</v>
       </c>
       <c r="D18" s="7">
-        <v>947739</v>
+        <v>3426779</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -3721,10 +3316,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1003</v>
+        <v>3296</v>
       </c>
       <c r="I18" s="7">
-        <v>1051901</v>
+        <v>3555098</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -3736,10 +3331,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1913</v>
+        <v>6505</v>
       </c>
       <c r="N18" s="7">
-        <v>1999640</v>
+        <v>6981877</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -3752,171 +3347,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>288</v>
-      </c>
-      <c r="D19" s="7">
-        <v>308953</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="H19" s="7">
-        <v>593</v>
-      </c>
-      <c r="I19" s="7">
-        <v>645546</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="M19" s="7">
-        <v>881</v>
-      </c>
-      <c r="N19" s="7">
-        <v>954499</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>2921</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3117826</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="H20" s="7">
-        <v>2703</v>
-      </c>
-      <c r="I20" s="7">
-        <v>2909552</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="M20" s="7">
-        <v>5624</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6027378</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3209</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3426779</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3296</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3555098</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6505</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6981877</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3929,8 +3368,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53A1D664-9A6B-46BC-8AAB-63441AB20A28}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38ABA1E1-3D84-445B-82FD-6A614F5CBB80}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3946,7 +3385,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>235</v>
+        <v>196</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4047,49 +3486,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="D4" s="7">
-        <v>11854</v>
+        <v>61026</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>237</v>
+        <v>198</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>238</v>
+        <v>199</v>
       </c>
       <c r="H4" s="7">
-        <v>18</v>
+        <v>95</v>
       </c>
       <c r="I4" s="7">
-        <v>18612</v>
+        <v>100642</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>239</v>
+        <v>39</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>241</v>
+        <v>201</v>
       </c>
       <c r="M4" s="7">
-        <v>29</v>
+        <v>154</v>
       </c>
       <c r="N4" s="7">
-        <v>30466</v>
+        <v>161668</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>242</v>
+        <v>202</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>243</v>
+        <v>203</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>244</v>
+        <v>204</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4098,49 +3537,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>102</v>
+        <v>593</v>
       </c>
       <c r="D5" s="7">
-        <v>104692</v>
+        <v>613774</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>245</v>
+        <v>205</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>246</v>
+        <v>206</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>247</v>
+        <v>207</v>
       </c>
       <c r="H5" s="7">
-        <v>97</v>
+        <v>571</v>
       </c>
       <c r="I5" s="7">
-        <v>94748</v>
+        <v>572197</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>248</v>
+        <v>49</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>249</v>
+        <v>208</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>250</v>
+        <v>209</v>
       </c>
       <c r="M5" s="7">
-        <v>199</v>
+        <v>1164</v>
       </c>
       <c r="N5" s="7">
-        <v>199440</v>
+        <v>1185971</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>251</v>
+        <v>210</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>252</v>
+        <v>211</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>253</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4149,10 +3588,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>113</v>
+        <v>652</v>
       </c>
       <c r="D6" s="7">
-        <v>116546</v>
+        <v>674800</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -4164,10 +3603,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>115</v>
+        <v>666</v>
       </c>
       <c r="I6" s="7">
-        <v>113360</v>
+        <v>672839</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -4179,10 +3618,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>228</v>
+        <v>1318</v>
       </c>
       <c r="N6" s="7">
-        <v>229906</v>
+        <v>1347639</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -4202,49 +3641,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="D7" s="7">
-        <v>49172</v>
+        <v>80772</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>254</v>
+        <v>213</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>255</v>
+        <v>214</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>256</v>
+        <v>215</v>
       </c>
       <c r="H7" s="7">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="I7" s="7">
-        <v>82030</v>
+        <v>140973</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>257</v>
+        <v>18</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>258</v>
+        <v>216</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>259</v>
+        <v>217</v>
       </c>
       <c r="M7" s="7">
-        <v>125</v>
+        <v>201</v>
       </c>
       <c r="N7" s="7">
-        <v>131202</v>
+        <v>221745</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>260</v>
+        <v>218</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>261</v>
+        <v>219</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>262</v>
+        <v>220</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4253,49 +3692,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>491</v>
+        <v>875</v>
       </c>
       <c r="D8" s="7">
-        <v>509082</v>
+        <v>941659</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>263</v>
+        <v>221</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>264</v>
+        <v>222</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>265</v>
+        <v>223</v>
       </c>
       <c r="H8" s="7">
-        <v>474</v>
+        <v>852</v>
       </c>
       <c r="I8" s="7">
-        <v>477449</v>
+        <v>901940</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>266</v>
+        <v>29</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>267</v>
+        <v>224</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>268</v>
+        <v>225</v>
       </c>
       <c r="M8" s="7">
-        <v>965</v>
+        <v>1727</v>
       </c>
       <c r="N8" s="7">
-        <v>986531</v>
+        <v>1843599</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>269</v>
+        <v>226</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>270</v>
+        <v>227</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>271</v>
+        <v>228</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4304,10 +3743,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>539</v>
+        <v>951</v>
       </c>
       <c r="D9" s="7">
-        <v>558254</v>
+        <v>1022431</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -4319,10 +3758,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>551</v>
+        <v>977</v>
       </c>
       <c r="I9" s="7">
-        <v>559479</v>
+        <v>1042913</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4334,10 +3773,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1090</v>
+        <v>1928</v>
       </c>
       <c r="N9" s="7">
-        <v>1117733</v>
+        <v>2065344</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4357,49 +3796,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>47</v>
+      </c>
+      <c r="D10" s="7">
+        <v>49575</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="H10" s="7">
         <v>76</v>
       </c>
-      <c r="D10" s="7">
-        <v>80772</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="H10" s="7">
-        <v>125</v>
-      </c>
       <c r="I10" s="7">
-        <v>140973</v>
+        <v>83727</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>275</v>
+        <v>232</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>276</v>
+        <v>233</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>277</v>
+        <v>234</v>
       </c>
       <c r="M10" s="7">
-        <v>201</v>
+        <v>123</v>
       </c>
       <c r="N10" s="7">
-        <v>221745</v>
+        <v>133302</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>278</v>
+        <v>235</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>279</v>
+        <v>236</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>280</v>
+        <v>237</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4408,49 +3847,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>875</v>
+        <v>649</v>
       </c>
       <c r="D11" s="7">
-        <v>941659</v>
+        <v>709977</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>281</v>
+        <v>238</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>282</v>
+        <v>239</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>283</v>
+        <v>240</v>
       </c>
       <c r="H11" s="7">
-        <v>852</v>
+        <v>660</v>
       </c>
       <c r="I11" s="7">
-        <v>901940</v>
+        <v>701284</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>284</v>
+        <v>241</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>285</v>
+        <v>242</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>286</v>
+        <v>243</v>
       </c>
       <c r="M11" s="7">
-        <v>1727</v>
+        <v>1309</v>
       </c>
       <c r="N11" s="7">
-        <v>1843599</v>
+        <v>1411261</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>287</v>
+        <v>244</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>288</v>
+        <v>245</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>289</v>
+        <v>246</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4459,10 +3898,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>951</v>
+        <v>696</v>
       </c>
       <c r="D12" s="7">
-        <v>1022431</v>
+        <v>759552</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4474,10 +3913,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>977</v>
+        <v>736</v>
       </c>
       <c r="I12" s="7">
-        <v>1042913</v>
+        <v>785011</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4489,10 +3928,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1928</v>
+        <v>1432</v>
       </c>
       <c r="N12" s="7">
-        <v>2065344</v>
+        <v>1544563</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4512,49 +3951,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>47</v>
+        <v>81</v>
       </c>
       <c r="D13" s="7">
-        <v>49575</v>
+        <v>86116</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>290</v>
+        <v>247</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>291</v>
+        <v>248</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>292</v>
+        <v>249</v>
       </c>
       <c r="H13" s="7">
-        <v>76</v>
+        <v>147</v>
       </c>
       <c r="I13" s="7">
-        <v>83727</v>
+        <v>167398</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>293</v>
+        <v>250</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>294</v>
+        <v>251</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>295</v>
+        <v>252</v>
       </c>
       <c r="M13" s="7">
-        <v>123</v>
+        <v>228</v>
       </c>
       <c r="N13" s="7">
-        <v>133302</v>
+        <v>253514</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>296</v>
+        <v>253</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>297</v>
+        <v>254</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>298</v>
+        <v>255</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4563,49 +4002,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>649</v>
+        <v>851</v>
       </c>
       <c r="D14" s="7">
-        <v>709977</v>
+        <v>851451</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>299</v>
+        <v>256</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>300</v>
+        <v>257</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>301</v>
+        <v>258</v>
       </c>
       <c r="H14" s="7">
-        <v>660</v>
+        <v>812</v>
       </c>
       <c r="I14" s="7">
-        <v>701284</v>
+        <v>876381</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>302</v>
+        <v>259</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>303</v>
+        <v>260</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>304</v>
+        <v>261</v>
       </c>
       <c r="M14" s="7">
-        <v>1309</v>
+        <v>1663</v>
       </c>
       <c r="N14" s="7">
-        <v>1411261</v>
+        <v>1727832</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>305</v>
+        <v>262</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>306</v>
+        <v>263</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>307</v>
+        <v>264</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4614,10 +4053,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>696</v>
+        <v>932</v>
       </c>
       <c r="D15" s="7">
-        <v>759552</v>
+        <v>937567</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4629,10 +4068,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>736</v>
+        <v>959</v>
       </c>
       <c r="I15" s="7">
-        <v>785011</v>
+        <v>1043779</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4644,10 +4083,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1432</v>
+        <v>1891</v>
       </c>
       <c r="N15" s="7">
-        <v>1544563</v>
+        <v>1981346</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4661,55 +4100,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>81</v>
+        <v>263</v>
       </c>
       <c r="D16" s="7">
-        <v>86116</v>
+        <v>277488</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>308</v>
+        <v>265</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>309</v>
+        <v>266</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>310</v>
+        <v>267</v>
       </c>
       <c r="H16" s="7">
-        <v>147</v>
+        <v>443</v>
       </c>
       <c r="I16" s="7">
-        <v>167398</v>
+        <v>492741</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>311</v>
+        <v>268</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>312</v>
+        <v>146</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>313</v>
+        <v>269</v>
       </c>
       <c r="M16" s="7">
-        <v>228</v>
+        <v>706</v>
       </c>
       <c r="N16" s="7">
-        <v>253514</v>
+        <v>770229</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>314</v>
+        <v>270</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>315</v>
+        <v>271</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>316</v>
+        <v>272</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4718,49 +4157,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>851</v>
+        <v>2968</v>
       </c>
       <c r="D17" s="7">
-        <v>851451</v>
+        <v>3116862</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>317</v>
+        <v>273</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>318</v>
+        <v>274</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>319</v>
+        <v>275</v>
       </c>
       <c r="H17" s="7">
-        <v>812</v>
+        <v>2895</v>
       </c>
       <c r="I17" s="7">
-        <v>876381</v>
+        <v>3051801</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>320</v>
+        <v>276</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>321</v>
+        <v>277</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>322</v>
+        <v>156</v>
       </c>
       <c r="M17" s="7">
-        <v>1663</v>
+        <v>5863</v>
       </c>
       <c r="N17" s="7">
-        <v>1727832</v>
+        <v>6168663</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>323</v>
+        <v>278</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>324</v>
+        <v>279</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>325</v>
+        <v>280</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4769,10 +4208,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>932</v>
+        <v>3231</v>
       </c>
       <c r="D18" s="7">
-        <v>937567</v>
+        <v>3394350</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -4784,10 +4223,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>959</v>
+        <v>3338</v>
       </c>
       <c r="I18" s="7">
-        <v>1043779</v>
+        <v>3544542</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -4799,10 +4238,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1891</v>
+        <v>6569</v>
       </c>
       <c r="N18" s="7">
-        <v>1981346</v>
+        <v>6938892</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -4815,171 +4254,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>263</v>
-      </c>
-      <c r="D19" s="7">
-        <v>277488</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="H19" s="7">
-        <v>443</v>
-      </c>
-      <c r="I19" s="7">
-        <v>492741</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="M19" s="7">
-        <v>706</v>
-      </c>
-      <c r="N19" s="7">
-        <v>770229</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>2968</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3116862</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="H20" s="7">
-        <v>2895</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3051801</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="M20" s="7">
-        <v>5863</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6168663</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3231</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3394350</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3338</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3544542</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6569</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6938892</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4992,8 +4275,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEA31AA7-B08F-4E43-BF45-F86BD118BEA1}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{039D3525-9088-43D7-A42C-5AE30B81DC2A}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5009,7 +4292,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>342</v>
+        <v>281</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5110,49 +4393,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>34</v>
+        <v>173</v>
       </c>
       <c r="D4" s="7">
-        <v>24754</v>
+        <v>126378</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>343</v>
+        <v>282</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>344</v>
+        <v>283</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>345</v>
+        <v>284</v>
       </c>
       <c r="H4" s="7">
-        <v>87</v>
+        <v>437</v>
       </c>
       <c r="I4" s="7">
-        <v>43440</v>
+        <v>209972</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>346</v>
+        <v>285</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>347</v>
+        <v>286</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>348</v>
+        <v>287</v>
       </c>
       <c r="M4" s="7">
-        <v>121</v>
+        <v>610</v>
       </c>
       <c r="N4" s="7">
-        <v>68194</v>
+        <v>336350</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>349</v>
+        <v>288</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>350</v>
+        <v>289</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>351</v>
+        <v>290</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5161,49 +4444,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>84</v>
+        <v>557</v>
       </c>
       <c r="D5" s="7">
-        <v>77228</v>
+        <v>509063</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>352</v>
+        <v>291</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>353</v>
+        <v>292</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>354</v>
+        <v>293</v>
       </c>
       <c r="H5" s="7">
-        <v>156</v>
+        <v>801</v>
       </c>
       <c r="I5" s="7">
-        <v>87293</v>
+        <v>465398</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>355</v>
+        <v>294</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>356</v>
+        <v>295</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>357</v>
+        <v>296</v>
       </c>
       <c r="M5" s="7">
-        <v>240</v>
+        <v>1358</v>
       </c>
       <c r="N5" s="7">
-        <v>164521</v>
+        <v>974461</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>358</v>
+        <v>297</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>359</v>
+        <v>298</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>360</v>
+        <v>299</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5212,10 +4495,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>118</v>
+        <v>730</v>
       </c>
       <c r="D6" s="7">
-        <v>101982</v>
+        <v>635441</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -5227,10 +4510,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>243</v>
+        <v>1238</v>
       </c>
       <c r="I6" s="7">
-        <v>130733</v>
+        <v>675370</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -5242,10 +4525,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>361</v>
+        <v>1968</v>
       </c>
       <c r="N6" s="7">
-        <v>232715</v>
+        <v>1310811</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -5265,49 +4548,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>139</v>
+        <v>196</v>
       </c>
       <c r="D7" s="7">
-        <v>108357</v>
+        <v>158785</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>361</v>
+        <v>300</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>362</v>
+        <v>301</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>363</v>
+        <v>94</v>
       </c>
       <c r="H7" s="7">
-        <v>350</v>
+        <v>537</v>
       </c>
       <c r="I7" s="7">
-        <v>182241</v>
+        <v>308890</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>364</v>
+        <v>302</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>365</v>
+        <v>303</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>366</v>
+        <v>304</v>
       </c>
       <c r="M7" s="7">
-        <v>489</v>
+        <v>733</v>
       </c>
       <c r="N7" s="7">
-        <v>290598</v>
+        <v>467675</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>367</v>
+        <v>305</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>368</v>
+        <v>306</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>369</v>
+        <v>307</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5316,49 +4599,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>473</v>
+        <v>766</v>
       </c>
       <c r="D8" s="7">
-        <v>441466</v>
+        <v>1030705</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>370</v>
+        <v>308</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>371</v>
+        <v>103</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>372</v>
+        <v>309</v>
       </c>
       <c r="H8" s="7">
-        <v>645</v>
+        <v>977</v>
       </c>
       <c r="I8" s="7">
-        <v>410314</v>
+        <v>647902</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>373</v>
+        <v>310</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>374</v>
+        <v>311</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>375</v>
+        <v>312</v>
       </c>
       <c r="M8" s="7">
-        <v>1118</v>
+        <v>1743</v>
       </c>
       <c r="N8" s="7">
-        <v>851780</v>
+        <v>1678607</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>376</v>
+        <v>313</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>377</v>
+        <v>314</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>378</v>
+        <v>315</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5367,10 +4650,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>612</v>
+        <v>962</v>
       </c>
       <c r="D9" s="7">
-        <v>549823</v>
+        <v>1189490</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -5382,10 +4665,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>995</v>
+        <v>1514</v>
       </c>
       <c r="I9" s="7">
-        <v>592555</v>
+        <v>956792</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -5397,10 +4680,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1607</v>
+        <v>2476</v>
       </c>
       <c r="N9" s="7">
-        <v>1142378</v>
+        <v>2146282</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -5420,49 +4703,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>196</v>
+        <v>154</v>
       </c>
       <c r="D10" s="7">
-        <v>170731</v>
+        <v>140149</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>379</v>
+        <v>316</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>380</v>
+        <v>317</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>381</v>
+        <v>318</v>
       </c>
       <c r="H10" s="7">
-        <v>537</v>
+        <v>368</v>
       </c>
       <c r="I10" s="7">
-        <v>340285</v>
+        <v>434208</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>382</v>
+        <v>319</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>383</v>
+        <v>320</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>384</v>
+        <v>321</v>
       </c>
       <c r="M10" s="7">
-        <v>733</v>
+        <v>522</v>
       </c>
       <c r="N10" s="7">
-        <v>511015</v>
+        <v>574358</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>385</v>
+        <v>322</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>386</v>
+        <v>323</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>387</v>
+        <v>324</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5471,49 +4754,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>766</v>
+        <v>520</v>
       </c>
       <c r="D11" s="7">
-        <v>865208</v>
+        <v>562816</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>388</v>
+        <v>325</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>389</v>
+        <v>326</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>390</v>
+        <v>327</v>
       </c>
       <c r="H11" s="7">
-        <v>977</v>
+        <v>678</v>
       </c>
       <c r="I11" s="7">
-        <v>717785</v>
+        <v>498998</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>391</v>
+        <v>328</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>392</v>
+        <v>329</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>393</v>
+        <v>330</v>
       </c>
       <c r="M11" s="7">
-        <v>1743</v>
+        <v>1198</v>
       </c>
       <c r="N11" s="7">
-        <v>1582994</v>
+        <v>1061813</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>394</v>
+        <v>331</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>395</v>
+        <v>332</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>396</v>
+        <v>333</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5522,10 +4805,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>962</v>
+        <v>674</v>
       </c>
       <c r="D12" s="7">
-        <v>1035939</v>
+        <v>702965</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -5537,10 +4820,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>1514</v>
+        <v>1046</v>
       </c>
       <c r="I12" s="7">
-        <v>1058070</v>
+        <v>933206</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -5552,10 +4835,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>2476</v>
+        <v>1720</v>
       </c>
       <c r="N12" s="7">
-        <v>2094009</v>
+        <v>1636171</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -5575,49 +4858,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>154</v>
+        <v>215</v>
       </c>
       <c r="D13" s="7">
-        <v>147164</v>
+        <v>176748</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>397</v>
+        <v>334</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>398</v>
+        <v>335</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>399</v>
+        <v>336</v>
       </c>
       <c r="H13" s="7">
-        <v>368</v>
+        <v>477</v>
       </c>
       <c r="I13" s="7">
-        <v>362358</v>
+        <v>280594</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>400</v>
+        <v>337</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>401</v>
+        <v>338</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>402</v>
+        <v>339</v>
       </c>
       <c r="M13" s="7">
-        <v>522</v>
+        <v>692</v>
       </c>
       <c r="N13" s="7">
-        <v>509522</v>
+        <v>457342</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>403</v>
+        <v>340</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>404</v>
+        <v>341</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>405</v>
+        <v>342</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5626,49 +4909,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>520</v>
+        <v>790</v>
       </c>
       <c r="D14" s="7">
-        <v>579760</v>
+        <v>749323</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>406</v>
+        <v>343</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>407</v>
+        <v>344</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>408</v>
+        <v>345</v>
       </c>
       <c r="H14" s="7">
-        <v>678</v>
+        <v>1083</v>
       </c>
       <c r="I14" s="7">
-        <v>511854</v>
+        <v>811320</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>409</v>
+        <v>346</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>410</v>
+        <v>347</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>411</v>
+        <v>348</v>
       </c>
       <c r="M14" s="7">
-        <v>1198</v>
+        <v>1873</v>
       </c>
       <c r="N14" s="7">
-        <v>1091613</v>
+        <v>1560644</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>412</v>
+        <v>349</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>413</v>
+        <v>350</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>414</v>
+        <v>351</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5677,10 +4960,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>674</v>
+        <v>1005</v>
       </c>
       <c r="D15" s="7">
-        <v>726924</v>
+        <v>926071</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -5692,10 +4975,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>1046</v>
+        <v>1560</v>
       </c>
       <c r="I15" s="7">
-        <v>874212</v>
+        <v>1091914</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -5707,10 +4990,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1720</v>
+        <v>2565</v>
       </c>
       <c r="N15" s="7">
-        <v>1601135</v>
+        <v>2017986</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -5724,55 +5007,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>215</v>
+        <v>738</v>
       </c>
       <c r="D16" s="7">
-        <v>187412</v>
+        <v>602060</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>415</v>
+        <v>352</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>416</v>
+        <v>353</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>417</v>
+        <v>354</v>
       </c>
       <c r="H16" s="7">
-        <v>477</v>
+        <v>1819</v>
       </c>
       <c r="I16" s="7">
-        <v>313239</v>
+        <v>1233663</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>418</v>
+        <v>355</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>419</v>
+        <v>356</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>420</v>
+        <v>357</v>
       </c>
       <c r="M16" s="7">
-        <v>692</v>
+        <v>2557</v>
       </c>
       <c r="N16" s="7">
-        <v>500651</v>
+        <v>1835724</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>421</v>
+        <v>358</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>422</v>
+        <v>359</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>423</v>
+        <v>355</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5781,49 +5064,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>790</v>
+        <v>2633</v>
       </c>
       <c r="D17" s="7">
-        <v>777154</v>
+        <v>2851908</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>424</v>
+        <v>360</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>425</v>
+        <v>361</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>426</v>
+        <v>362</v>
       </c>
       <c r="H17" s="7">
-        <v>1083</v>
+        <v>3539</v>
       </c>
       <c r="I17" s="7">
-        <v>833705</v>
+        <v>2423619</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>427</v>
+        <v>363</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>428</v>
+        <v>364</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>429</v>
+        <v>365</v>
       </c>
       <c r="M17" s="7">
-        <v>1873</v>
+        <v>6172</v>
       </c>
       <c r="N17" s="7">
-        <v>1610859</v>
+        <v>5275526</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>430</v>
+        <v>366</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>431</v>
+        <v>363</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>432</v>
+        <v>367</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5832,10 +5115,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>1005</v>
+        <v>3371</v>
       </c>
       <c r="D18" s="7">
-        <v>964566</v>
+        <v>3453968</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -5847,10 +5130,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1560</v>
+        <v>5358</v>
       </c>
       <c r="I18" s="7">
-        <v>1146944</v>
+        <v>3657282</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -5862,10 +5145,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>2565</v>
+        <v>8729</v>
       </c>
       <c r="N18" s="7">
-        <v>2111510</v>
+        <v>7111250</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -5878,171 +5161,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>738</v>
-      </c>
-      <c r="D19" s="7">
-        <v>638416</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>433</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>434</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>435</v>
-      </c>
-      <c r="H19" s="7">
-        <v>1819</v>
-      </c>
-      <c r="I19" s="7">
-        <v>1241563</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>436</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>437</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>438</v>
-      </c>
-      <c r="M19" s="7">
-        <v>2557</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1879979</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>439</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>440</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>2633</v>
-      </c>
-      <c r="D20" s="7">
-        <v>2740818</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>442</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>443</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>444</v>
-      </c>
-      <c r="H20" s="7">
-        <v>3539</v>
-      </c>
-      <c r="I20" s="7">
-        <v>2560950</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>445</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>446</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>447</v>
-      </c>
-      <c r="M20" s="7">
-        <v>6172</v>
-      </c>
-      <c r="N20" s="7">
-        <v>5301767</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>448</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>449</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3371</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3379234</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>5358</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3802513</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>8729</v>
-      </c>
-      <c r="N21" s="7">
-        <v>7181746</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
